--- a/trend_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
+++ b/trend_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W35"/>
+  <dimension ref="A1:W48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -441,7 +441,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>variable</t>
+          <t>parameter name</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
@@ -755,7 +755,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.328690213555041</v>
+        <v>0.671309786444959</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Unlikely increasing</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -2025,7 +2025,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.0001471094963271</v>
+        <v>0.999852890503673</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.008427521306920399</v>
+        <v>0.99157247869308</v>
       </c>
       <c r="G24" t="n">
         <v>0</v>
@@ -2604,7 +2604,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely increasing</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -3098,11 +3098,11 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.5</v>
+        <v>0.999900167897144</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0.54014598540146</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0.249</v>
+        <v>70</v>
       </c>
       <c r="K30" t="n">
-        <v>0.0040781285031712</v>
+        <v>-4.73386698689316</v>
       </c>
       <c r="L30" t="n">
-        <v>-0.112826314802045</v>
+        <v>-7.06584821428571</v>
       </c>
       <c r="M30" t="n">
-        <v>0.0664327321144214</v>
+        <v>-2.66939700687879</v>
       </c>
       <c r="N30" t="n">
-        <v>1.63780261171535</v>
+        <v>-6.76266712413309</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3175,7 +3175,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W30" t="inlineStr"/>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>mg/m2</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -3185,11 +3189,11 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -3200,31 +3204,31 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.5</v>
+        <v>0.999999995178413</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>0.0277777777777778</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0.541666666666667</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J31" t="n">
-        <v>84.67</v>
+        <v>2</v>
       </c>
       <c r="K31" t="n">
-        <v>-0.0620051771241666</v>
+        <v>0.145228628230616</v>
       </c>
       <c r="L31" t="n">
-        <v>-12.4144490533714</v>
+        <v>0.104007387153884</v>
       </c>
       <c r="M31" t="n">
-        <v>5.20581577139452</v>
+        <v>0.180910649679264</v>
       </c>
       <c r="N31" t="n">
-        <v>-0.07323157803728191</v>
+        <v>7.26143141153081</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3233,7 +3237,7 @@
       </c>
       <c r="P31" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q31" t="n">
@@ -3262,7 +3266,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W31" t="inlineStr"/>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -3272,14 +3280,14 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="D32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E32" t="inlineStr">
         <is>
@@ -3287,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.59675202974633</v>
+        <v>0.995124976817275</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0.805714285714286</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>3.455</v>
+        <v>10.43</v>
       </c>
       <c r="K32" t="n">
-        <v>0.130471618761141</v>
+        <v>0.0497277059223965</v>
       </c>
       <c r="L32" t="n">
-        <v>-0.56688975984546</v>
+        <v>0.0200045641259697</v>
       </c>
       <c r="M32" t="n">
-        <v>0.530254118490916</v>
+        <v>0.0799958402598573</v>
       </c>
       <c r="N32" t="n">
-        <v>3.77631313346283</v>
+        <v>0.476775703953945</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3320,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3349,7 +3357,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W32" t="inlineStr"/>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -3359,14 +3371,14 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E33" t="inlineStr">
         <is>
@@ -3374,31 +3386,31 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.912345959595863</v>
+        <v>0.999898384447768</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>0.0454545454545455</v>
       </c>
       <c r="H33" t="n">
+        <v>0.267045454545455</v>
+      </c>
+      <c r="I33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
       <c r="J33" t="n">
-        <v>0.23</v>
+        <v>0.014</v>
       </c>
       <c r="K33" t="n">
-        <v>0.0160524394314877</v>
+        <v>-0.0005831339562648999</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.010650940795208</v>
+        <v>-0.000874928161683</v>
       </c>
       <c r="M33" t="n">
-        <v>0.0286214136479897</v>
+        <v>-0.0002851288056206</v>
       </c>
       <c r="N33" t="n">
-        <v>6.97932149195117</v>
+        <v>-4.1652425447494</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3407,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3436,7 +3448,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W33" t="inlineStr"/>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -3446,14 +3462,14 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
@@ -3461,31 +3477,31 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.5</v>
+        <v>0.981953542633893</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0.6875</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.875</v>
+        <v>225</v>
       </c>
       <c r="K34" t="n">
-        <v>0.192763879369432</v>
+        <v>-6.32551639591406</v>
       </c>
       <c r="L34" t="n">
-        <v>-2.06655621979949</v>
+        <v>-11.0839579124977</v>
       </c>
       <c r="M34" t="n">
-        <v>1.39530281348391</v>
+        <v>-1.33061564164136</v>
       </c>
       <c r="N34" t="n">
-        <v>0.229822806997832</v>
+        <v>-2.81134062040625</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3494,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3523,7 +3539,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W34" t="inlineStr"/>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -3533,46 +3553,46 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D35" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.852746303159945</v>
+        <v>0.426501159655777</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>0.242774566473988</v>
       </c>
       <c r="H35" t="n">
-        <v>0.888888888888889</v>
+        <v>0.751445086705202</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>3.27</v>
+        <v>0.0191803378251352</v>
       </c>
       <c r="K35" t="n">
-        <v>0.0179230574932494</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>-0.0706410589252626</v>
+        <v>-9.63675423584333e-05</v>
       </c>
       <c r="M35" t="n">
-        <v>0.139131198928034</v>
+        <v>0.0001917854333357</v>
       </c>
       <c r="N35" t="n">
-        <v>0.548105733738512</v>
+        <v>0</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3581,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3610,7 +3630,1166 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W35" t="inlineStr"/>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Nitrite Nitrogen (NO2)</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>15</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>WARNING: Sen slope influenced by censored values</t>
+        </is>
+      </c>
+      <c r="F36" t="n">
+        <v>0.163699073745234</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H36" t="n">
+        <v>0.141935483870968</v>
+      </c>
+      <c r="I36" t="n">
+        <v>2</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>0</v>
+      </c>
+      <c r="M36" t="n">
+        <v>0.0001252602048266</v>
+      </c>
+      <c r="N36" t="n">
+        <v>0</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R36" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Nitrate Nitrogen (NO3)</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>15</v>
+      </c>
+      <c r="D37" t="b">
+        <v>1</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F37" t="n">
+        <v>0.32534358262217</v>
+      </c>
+      <c r="G37" t="n">
+        <v>0.0254777070063694</v>
+      </c>
+      <c r="H37" t="n">
+        <v>0.904458598726115</v>
+      </c>
+      <c r="I37" t="n">
+        <v>1</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0.368</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0.0019524264963759</v>
+      </c>
+      <c r="L37" t="n">
+        <v>-0.0030489451792938</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0.0067461223344182</v>
+      </c>
+      <c r="N37" t="n">
+        <v>0.530550678363036</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Unlikely improving</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R37" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S37" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>pH</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>15</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F38" t="n">
+        <v>0.999996551525678</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="n">
+        <v>0.542857142857143</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0.0264499670836075</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0.0169075682994377</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0.035864273194944</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0.352666227781433</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Virtually certain increasing</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>15</v>
+      </c>
+      <c r="D39" t="b">
+        <v>1</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F39" t="n">
+        <v>0.476669481469921</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0.0056497175141242</v>
+      </c>
+      <c r="H39" t="n">
+        <v>0.864406779661017</v>
+      </c>
+      <c r="I39" t="n">
+        <v>1</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0.428</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0.0002366842079828</v>
+      </c>
+      <c r="L39" t="n">
+        <v>-0.0037212637379861</v>
+      </c>
+      <c r="M39" t="n">
+        <v>0.0039060614384648</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0.0553000485941236</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Total Nitrogen</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>15</v>
+      </c>
+      <c r="D40" t="b">
+        <v>1</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F40" t="n">
+        <v>0.887187347377048</v>
+      </c>
+      <c r="G40" t="n">
+        <v>0</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0.494318181818182</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0.6304999999999999</v>
+      </c>
+      <c r="K40" t="n">
+        <v>-0.0033234758871701</v>
+      </c>
+      <c r="L40" t="n">
+        <v>-0.0083352350524874</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0.000771532649064</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.5271175078779</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Total Phosphorus</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>15</v>
+      </c>
+      <c r="D41" t="b">
+        <v>1</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.999784415655397</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0.0056818181818181</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0.363636363636364</v>
+      </c>
+      <c r="I41" t="n">
+        <v>1</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="K41" t="n">
+        <v>-0.0008301151799662</v>
+      </c>
+      <c r="L41" t="n">
+        <v>-0.0012490321353406</v>
+      </c>
+      <c r="M41" t="n">
+        <v>-0.0004914525457958</v>
+      </c>
+      <c r="N41" t="n">
+        <v>-2.86246613781463</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>Virtually certain improving</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Turbidity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>15</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F42" t="n">
+        <v>0.857910807810346</v>
+      </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
+      <c r="H42" t="n">
+        <v>0.7215909090909089</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>1.235</v>
+      </c>
+      <c r="K42" t="n">
+        <v>-0.0107321356624842</v>
+      </c>
+      <c r="L42" t="n">
+        <v>-0.0287187134701432</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.0059007560877763</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.868998839067545</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R42" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>NTU/FNU</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>5</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F43" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G43" t="n">
+        <v>0</v>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0.249</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0.0040781285031712</v>
+      </c>
+      <c r="L43" t="n">
+        <v>-0.112826314802045</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0.0664327321144214</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1.63780261171535</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R43" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>5</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F44" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G44" t="n">
+        <v>0</v>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>84.67</v>
+      </c>
+      <c r="K44" t="n">
+        <v>-0.0620051771241666</v>
+      </c>
+      <c r="L44" t="n">
+        <v>-12.4144490533714</v>
+      </c>
+      <c r="M44" t="n">
+        <v>5.20581577139452</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.07323157803728191</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr"/>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>5</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F45" t="n">
+        <v>0.59675202974633</v>
+      </c>
+      <c r="G45" t="n">
+        <v>0</v>
+      </c>
+      <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>3.455</v>
+      </c>
+      <c r="K45" t="n">
+        <v>0.130471618761141</v>
+      </c>
+      <c r="L45" t="n">
+        <v>-0.56688975984546</v>
+      </c>
+      <c r="M45" t="n">
+        <v>0.530254118490916</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3.77631313346283</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>10</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F46" t="n">
+        <v>0.912345959595863</v>
+      </c>
+      <c r="G46" t="n">
+        <v>0</v>
+      </c>
+      <c r="H46" t="n">
+        <v>1</v>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0.0160524394314877</v>
+      </c>
+      <c r="L46" t="n">
+        <v>-0.010650940795208</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0.0286214136479897</v>
+      </c>
+      <c r="N46" t="n">
+        <v>6.97932149195117</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>Very likely improving</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R46" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>MCI (Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>10</v>
+      </c>
+      <c r="D47" t="b">
+        <v>0</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>83.875</v>
+      </c>
+      <c r="K47" t="n">
+        <v>0.192763879369432</v>
+      </c>
+      <c r="L47" t="n">
+        <v>-2.06655621979949</v>
+      </c>
+      <c r="M47" t="n">
+        <v>1.39530281348391</v>
+      </c>
+      <c r="N47" t="n">
+        <v>0.229822806997832</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>As likely as not improving</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr"/>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Makotuku at d/s Raetihi STP</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>10</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F48" t="n">
+        <v>0.852746303159945</v>
+      </c>
+      <c r="G48" t="n">
+        <v>0</v>
+      </c>
+      <c r="H48" t="n">
+        <v>0.888888888888889</v>
+      </c>
+      <c r="I48" t="n">
+        <v>0</v>
+      </c>
+      <c r="J48" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="K48" t="n">
+        <v>0.0179230574932494</v>
+      </c>
+      <c r="L48" t="n">
+        <v>-0.0706410589252626</v>
+      </c>
+      <c r="M48" t="n">
+        <v>0.139131198928034</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.548105733738512</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>Likely improving</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>1796683.601</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5632147.322</v>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
+++ b/trend_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W48"/>
+  <dimension ref="A1:W46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,31 +573,31 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0.958533916629371</v>
+        <v>0.680061299106437</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0.8297872340425529</v>
+        <v>0.808510638297872</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="K2" t="n">
-        <v>-7.04702842377261</v>
+        <v>-1.93906853281853</v>
       </c>
       <c r="L2" t="n">
-        <v>-15.2862664061656</v>
+        <v>-8.633659164241021</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.175236510679297</v>
+        <v>4.32752801160052</v>
       </c>
       <c r="N2" t="n">
-        <v>-14.0940568475452</v>
+        <v>-4.12567772940113</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -606,7 +606,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q2" t="n">
@@ -664,13 +664,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0.773298015517531</v>
+        <v>0.102448551164654</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0333333333333333</v>
       </c>
       <c r="H3" t="n">
-        <v>0.805555555555556</v>
+        <v>0.833333333333333</v>
       </c>
       <c r="I3" t="n">
         <v>1</v>
@@ -679,16 +679,16 @@
         <v>3</v>
       </c>
       <c r="K3" t="n">
-        <v>0.124969670119956</v>
+        <v>-0.359852216748768</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.184855595214775</v>
+        <v>-0.719423396943512</v>
       </c>
       <c r="M3" t="n">
-        <v>0.347919398107202</v>
+        <v>0.105097690660375</v>
       </c>
       <c r="N3" t="n">
-        <v>4.16565567066521</v>
+        <v>-11.9950738916256</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -697,7 +697,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q3" t="n">
@@ -755,31 +755,31 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0.671309786444959</v>
+        <v>0.150355523574156</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0.931034482758621</v>
+        <v>0.948275862068966</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.8</v>
+        <v>10.775</v>
       </c>
       <c r="K4" t="n">
-        <v>0.0324443681318682</v>
+        <v>-0.0300412510710904</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0335684338978441</v>
+        <v>-0.156543565179966</v>
       </c>
       <c r="M4" t="n">
-        <v>0.149261654051494</v>
+        <v>0.0240159897342087</v>
       </c>
       <c r="N4" t="n">
-        <v>0.300410816035816</v>
+        <v>-0.278805114348867</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
@@ -788,7 +788,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>Likely increasing</t>
+          <t>Unlikely increasing</t>
         </is>
       </c>
       <c r="Q4" t="n">
@@ -846,31 +846,31 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0.259125542593471</v>
+        <v>0.0756741314236359</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0.46551724137931</v>
+        <v>0.396551724137931</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.0115</v>
+        <v>0.0105</v>
       </c>
       <c r="K5" t="n">
-        <v>0.0004141156462585</v>
+        <v>0.000717583497053</v>
       </c>
       <c r="L5" t="n">
-        <v>-0.000635205530282</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>0.0016812590304089</v>
+        <v>0.0016995358765182</v>
       </c>
       <c r="N5" t="n">
-        <v>3.60100561963916</v>
+        <v>6.83412854336233</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
@@ -879,7 +879,7 @@
       </c>
       <c r="P5" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Very unlikely improving</t>
         </is>
       </c>
       <c r="Q5" t="n">
@@ -937,13 +937,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0.571908008967929</v>
+        <v>0.116129662181172</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0.724137931034483</v>
+        <v>0.810344827586207</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -952,16 +952,16 @@
         <v>190</v>
       </c>
       <c r="K6" t="n">
-        <v>-1.61717267552182</v>
+        <v>21.2935752528257</v>
       </c>
       <c r="L6" t="n">
-        <v>-29.2397004893377</v>
+        <v>-8.572226478484151</v>
       </c>
       <c r="M6" t="n">
-        <v>25.6615925058548</v>
+        <v>49.4969561423627</v>
       </c>
       <c r="N6" t="n">
-        <v>-0.851143513432538</v>
+        <v>11.2071448699083</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
@@ -970,7 +970,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q6" t="n">
@@ -1024,35 +1024,35 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0.107947163656916</v>
+        <v>0.5422139905835019</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0892857142857143</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0.928571428571429</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.0245055716903095</v>
+        <v>0.0255936546552685</v>
       </c>
       <c r="K7" t="n">
-        <v>0.0019546885327135</v>
+        <v>-0.0001176674328511</v>
       </c>
       <c r="L7" t="n">
-        <v>-0.0003902414690267</v>
+        <v>-0.0019991950845075</v>
       </c>
       <c r="M7" t="n">
-        <v>0.0048663993293998</v>
+        <v>0.0024364483459966</v>
       </c>
       <c r="N7" t="n">
-        <v>7.97650655702304</v>
+        <v>-0.459752366107991</v>
       </c>
       <c r="O7" t="inlineStr">
         <is>
@@ -1061,7 +1061,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q7" t="n">
@@ -1111,21 +1111,21 @@
         <v>5</v>
       </c>
       <c r="D8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0.710004748072496</v>
+        <v>0.997465419890311</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0517241379310345</v>
+        <v>0.0862068965517241</v>
       </c>
       <c r="H8" t="n">
-        <v>0.155172413793103</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -1134,16 +1134,16 @@
         <v>0.004</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>-0.0004537267080745</v>
       </c>
       <c r="L8" t="n">
-        <v>-0.0002828483563062</v>
+        <v>-0.0007180537352555</v>
       </c>
       <c r="M8" t="n">
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>-11.3431677018634</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -1152,7 +1152,7 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q8" t="n">
@@ -1210,7 +1210,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0.0449824875182887</v>
+        <v>2.51043042057803e-05</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1222,19 +1222,19 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.338</v>
+        <v>0.3445</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0241556324650875</v>
+        <v>0.0542790638470129</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0025873870357911</v>
+        <v>0.0360699776031987</v>
       </c>
       <c r="M9" t="n">
-        <v>0.0457586613975169</v>
+        <v>0.07227828922601259</v>
       </c>
       <c r="N9" t="n">
-        <v>7.14663682399039</v>
+        <v>15.7558966174203</v>
       </c>
       <c r="O9" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q9" t="n">
@@ -1297,35 +1297,35 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on tied non-censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0.5</v>
+        <v>0.0008986369257949</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0.741379310344828</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>7.595</v>
+        <v>7.58</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>-0.079892464678179</v>
       </c>
       <c r="L10" t="n">
-        <v>-0.0456318881539574</v>
+        <v>-0.110377747252748</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0234376385073549</v>
+        <v>-0.0398492930083718</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>-1.05399029918442</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
@@ -1334,7 +1334,7 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>As likely as not increasing</t>
+          <t>Exceptionally unlikely increasing</t>
         </is>
       </c>
       <c r="Q10" t="n">
@@ -1388,31 +1388,31 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0.0355984446376258</v>
+        <v>0.0001163392557265</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0.966101694915254</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.424</v>
+        <v>0.416</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0238423101452119</v>
+        <v>0.0481254848093083</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0055203093070165</v>
+        <v>0.0289204406007653</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0382261343751112</v>
+        <v>0.06395640963004851</v>
       </c>
       <c r="N11" t="n">
-        <v>5.62318635500281</v>
+        <v>11.5686261560837</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q11" t="n">
@@ -1464,46 +1464,46 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C12" t="n">
         <v>5</v>
       </c>
       <c r="D12" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0.474598136223483</v>
+        <v>5.12054694559899e-08</v>
       </c>
       <c r="G12" t="n">
-        <v>0.431034482758621</v>
+        <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0.206896551724138</v>
+        <v>0.672413793103448</v>
       </c>
       <c r="I12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1</v>
+        <v>0.5649999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>0.0500516752983858</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>0.0398658106669022</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>0.06530273830152659</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>8.85870359263466</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
@@ -1512,7 +1512,7 @@
       </c>
       <c r="P12" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q12" t="n">
@@ -1543,7 +1543,7 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -1555,14 +1555,14 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C13" t="n">
         <v>5</v>
       </c>
       <c r="D13" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
@@ -1570,31 +1570,31 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0.0916606131112542</v>
+        <v>0.0092108254510717</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0.672413793103448</v>
+        <v>0.5344827586206899</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.555</v>
+        <v>0.023</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0225172524843578</v>
+        <v>0.0020519662921348</v>
       </c>
       <c r="L13" t="n">
-        <v>-0.0026109221699949</v>
+        <v>0.0006293038986039</v>
       </c>
       <c r="M13" t="n">
-        <v>0.0399138163731508</v>
+        <v>0.0039944786700112</v>
       </c>
       <c r="N13" t="n">
-        <v>4.05716260979419</v>
+        <v>8.92159257449927</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1603,7 +1603,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>Very unlikely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q13" t="n">
@@ -1646,7 +1646,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C14" t="n">
@@ -1661,31 +1661,31 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0.161799597965497</v>
+        <v>0.358569315140227</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0.551724137931034</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0255</v>
+        <v>1.21</v>
       </c>
       <c r="K14" t="n">
-        <v>0.0012430516165626</v>
+        <v>0.0158116883116883</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.0008024809214511</v>
+        <v>-0.059372048306226</v>
       </c>
       <c r="M14" t="n">
-        <v>0.0034785714285714</v>
+        <v>0.124528321136174</v>
       </c>
       <c r="N14" t="n">
-        <v>4.87471222181442</v>
+        <v>1.30675110013953</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1694,7 +1694,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q14" t="n">
@@ -1725,7 +1725,7 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -1737,11 +1737,11 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D15" t="b">
         <v>0</v>
@@ -1752,31 +1752,31 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0.386473035300405</v>
+        <v>0.994962039280616</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>0.844827586206897</v>
+        <v>0.6326530612244901</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.26</v>
+        <v>65</v>
       </c>
       <c r="K15" t="n">
-        <v>0.0149081632653061</v>
+        <v>-4.63123415046492</v>
       </c>
       <c r="L15" t="n">
-        <v>-0.07459888366052821</v>
+        <v>-7.70127112450787</v>
       </c>
       <c r="M15" t="n">
-        <v>0.09576699423428239</v>
+        <v>-1.52819320563506</v>
       </c>
       <c r="N15" t="n">
-        <v>1.18318756073858</v>
+        <v>-7.12497561609988</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
@@ -1785,7 +1785,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q15" t="n">
@@ -1816,7 +1816,7 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -1828,7 +1828,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C16" t="n">
@@ -1843,31 +1843,31 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0.999658455003116</v>
+        <v>0.570596151488816</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>0.0506329113924051</v>
       </c>
       <c r="H16" t="n">
-        <v>0.6326530612244901</v>
+        <v>0.683544303797468</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J16" t="n">
-        <v>70</v>
+        <v>2.9</v>
       </c>
       <c r="K16" t="n">
-        <v>-6.50121359223301</v>
+        <v>-0.014267578125</v>
       </c>
       <c r="L16" t="n">
-        <v>-9.94306884502582</v>
+        <v>-0.114404324946842</v>
       </c>
       <c r="M16" t="n">
-        <v>-3.51035755255821</v>
+        <v>0.0716592502974695</v>
       </c>
       <c r="N16" t="n">
-        <v>-9.287447988904299</v>
+        <v>-0.491985452586206</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
@@ -1876,7 +1876,7 @@
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q16" t="n">
@@ -1907,7 +1907,7 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -1919,14 +1919,14 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C17" t="n">
         <v>10</v>
       </c>
       <c r="D17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
@@ -1934,31 +1934,31 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0.99937554175722</v>
+        <v>0.999168636345128</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0454545454545455</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0.625</v>
+        <v>0.872881355932203</v>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>2.8</v>
+        <v>10.525</v>
       </c>
       <c r="K17" t="n">
-        <v>0.14243479880775</v>
+        <v>0.0846816961234254</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0568385602860654</v>
+        <v>0.0432367231483616</v>
       </c>
       <c r="M17" t="n">
-        <v>0.228151765484066</v>
+        <v>0.123332398875479</v>
       </c>
       <c r="N17" t="n">
-        <v>5.08695710027677</v>
+        <v>0.804576685258199</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
@@ -1967,7 +1967,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q17" t="n">
@@ -1998,7 +1998,7 @@
       </c>
       <c r="W17" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2010,14 +2010,14 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C18" t="n">
         <v>10</v>
       </c>
       <c r="D18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
@@ -2025,31 +2025,31 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0.999852890503673</v>
+        <v>0.996626691399223</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0.847457627118644</v>
+        <v>0.279661016949153</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>10.48</v>
+        <v>0.013</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0991641935179951</v>
+        <v>-0.000648181011535</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0600136923779098</v>
+        <v>-0.0010439913124646</v>
       </c>
       <c r="M18" t="n">
-        <v>0.150579589049698</v>
+        <v>-0.0002443254663547</v>
       </c>
       <c r="N18" t="n">
-        <v>0.9462232205915559</v>
+        <v>-4.98600778103884</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2058,7 +2058,7 @@
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q18" t="n">
@@ -2089,7 +2089,7 @@
       </c>
       <c r="W18" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2101,7 +2101,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C19" t="n">
@@ -2116,31 +2116,31 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0.9930583409246641</v>
+        <v>0.271238618944247</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0.296610169491525</v>
+        <v>0.6949152542372879</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0.013</v>
+        <v>194</v>
       </c>
       <c r="K19" t="n">
-        <v>-0.0006657569908165</v>
+        <v>3.06960207463415</v>
       </c>
       <c r="L19" t="n">
-        <v>-0.0010009434404992</v>
+        <v>-6.53182441462985</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0001429128156261</v>
+        <v>11.3102995959789</v>
       </c>
       <c r="N19" t="n">
-        <v>-5.12120762166549</v>
+        <v>1.58226911063616</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2149,7 +2149,7 @@
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q19" t="n">
@@ -2180,7 +2180,7 @@
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -2192,7 +2192,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C20" t="n">
@@ -2203,35 +2203,35 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0.814179203654929</v>
+        <v>8.266598619991499e-06</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>0.267241379310345</v>
       </c>
       <c r="H20" t="n">
-        <v>0.669491525423729</v>
+        <v>0.732758620689655</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>197.5</v>
+        <v>0.0186458036194274</v>
       </c>
       <c r="K20" t="n">
-        <v>-4.55812807881773</v>
+        <v>0.0019498488532054</v>
       </c>
       <c r="L20" t="n">
-        <v>-13.2846183559186</v>
+        <v>0.0011158633891653</v>
       </c>
       <c r="M20" t="n">
-        <v>4.10846165960223</v>
+        <v>0.0026731878852203</v>
       </c>
       <c r="N20" t="n">
-        <v>-2.30791295130012</v>
+        <v>10.4573066036899</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -2240,7 +2240,7 @@
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Likely improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q20" t="n">
@@ -2271,7 +2271,7 @@
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -2283,7 +2283,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C21" t="n">
@@ -2294,35 +2294,35 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0.0001821330444507</v>
+        <v>0.999629974834197</v>
       </c>
       <c r="G21" t="n">
-        <v>0.28448275862069</v>
+        <v>0.076271186440678</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7155172413793101</v>
+        <v>0.144067796610169</v>
       </c>
       <c r="I21" t="n">
         <v>1</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0177180644561945</v>
+        <v>0.004</v>
       </c>
       <c r="K21" t="n">
-        <v>0.0015721091583066</v>
+        <v>-0.0002260210396039</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0005447101184656</v>
+        <v>-0.0003577467538905</v>
       </c>
       <c r="M21" t="n">
-        <v>0.0023796165275563</v>
+        <v>0</v>
       </c>
       <c r="N21" t="n">
-        <v>8.872917028795779</v>
+        <v>-5.65052599009901</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
@@ -2331,7 +2331,7 @@
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Exceptionally unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q21" t="n">
@@ -2374,14 +2374,14 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C22" t="n">
         <v>10</v>
       </c>
       <c r="D22" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
@@ -2389,31 +2389,31 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0.994017313229891</v>
+        <v>0.0087153652628899</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0677966101694915</v>
+        <v>0.0254237288135593</v>
       </c>
       <c r="H22" t="n">
-        <v>0.161016949152542</v>
+        <v>0.940677966101695</v>
       </c>
       <c r="I22" t="n">
         <v>1</v>
       </c>
       <c r="J22" t="n">
-        <v>0.004</v>
+        <v>0.3615</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.000181806869089</v>
+        <v>0.0131692732029117</v>
       </c>
       <c r="L22" t="n">
-        <v>-0.0003440537860887</v>
+        <v>0.0055691739744133</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>0.0198877596205089</v>
       </c>
       <c r="N22" t="n">
-        <v>-4.54517172722748</v>
+        <v>3.64295247660076</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
@@ -2422,7 +2422,7 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q22" t="n">
@@ -2465,14 +2465,14 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C23" t="n">
         <v>10</v>
       </c>
       <c r="D23" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
@@ -2480,31 +2480,31 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0.112151858378467</v>
+        <v>0.893424818226342</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0254237288135593</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0.949152542372881</v>
+        <v>0.5169491525423729</v>
       </c>
       <c r="I23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0.352</v>
+        <v>7.52</v>
       </c>
       <c r="K23" t="n">
-        <v>0.0075867385568608</v>
+        <v>0.008573943661971801</v>
       </c>
       <c r="L23" t="n">
-        <v>-0.0022142023766324</v>
+        <v>-0.0028184085561204</v>
       </c>
       <c r="M23" t="n">
-        <v>0.0141902363580133</v>
+        <v>0.0216576994324889</v>
       </c>
       <c r="N23" t="n">
-        <v>2.15532345365366</v>
+        <v>0.114015208270902</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
@@ -2513,7 +2513,7 @@
       </c>
       <c r="P23" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Likely increasing</t>
         </is>
       </c>
       <c r="Q23" t="n">
@@ -2542,11 +2542,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W23" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -2556,14 +2552,14 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C24" t="n">
         <v>10</v>
       </c>
       <c r="D24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
@@ -2571,31 +2567,31 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0.99157247869308</v>
+        <v>0.0020270922548087</v>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>0.008403361344537799</v>
       </c>
       <c r="H24" t="n">
-        <v>0.550847457627119</v>
+        <v>0.907563025210084</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J24" t="n">
-        <v>7.525</v>
+        <v>0.421</v>
       </c>
       <c r="K24" t="n">
-        <v>0.0174343675417657</v>
+        <v>0.0175948923812778</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0047724626455234</v>
+        <v>0.008037508757517599</v>
       </c>
       <c r="M24" t="n">
-        <v>0.0306661594033828</v>
+        <v>0.0228696628092555</v>
       </c>
       <c r="N24" t="n">
-        <v>0.23168594739888</v>
+        <v>4.17930935422275</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
@@ -2604,7 +2600,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Exceptionally unlikely improving</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -2633,7 +2629,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W24" t="inlineStr"/>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -2643,7 +2643,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -2658,31 +2658,31 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0.0472527142157606</v>
+        <v>0.365022680879092</v>
       </c>
       <c r="G25" t="n">
-        <v>0.008403361344537799</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0.890756302521008</v>
+        <v>0.576271186440678</v>
       </c>
       <c r="I25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>0.421</v>
+        <v>0.62</v>
       </c>
       <c r="K25" t="n">
-        <v>0.0089733848953594</v>
+        <v>0.0017083181577783</v>
       </c>
       <c r="L25" t="n">
-        <v>0.0002228106813001</v>
+        <v>-0.0071600341235351</v>
       </c>
       <c r="M25" t="n">
-        <v>0.017669264008535</v>
+        <v>0.0099791630198283</v>
       </c>
       <c r="N25" t="n">
-        <v>2.13144534331578</v>
+        <v>0.275535186738451</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
@@ -2691,7 +2691,7 @@
       </c>
       <c r="P25" t="inlineStr">
         <is>
-          <t>Extremely unlikely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q25" t="n">
@@ -2734,46 +2734,46 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Suspended Sediment Concentration</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C26" t="n">
         <v>10</v>
       </c>
       <c r="D26" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0.92915519799691</v>
+        <v>0.980985246708184</v>
       </c>
       <c r="G26" t="n">
-        <v>0.330508474576271</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>0.169491525423729</v>
+        <v>0.415254237288136</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>1</v>
+        <v>0.026</v>
       </c>
       <c r="K26" t="n">
-        <v>0</v>
+        <v>-0.0008738038277511</v>
       </c>
       <c r="L26" t="n">
-        <v>-0.0550665434207581</v>
+        <v>-0.0015634402764506</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>-1.94165633380557e-05</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>-3.36078395288922</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
@@ -2782,7 +2782,7 @@
       </c>
       <c r="P26" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>Extremely likely improving</t>
         </is>
       </c>
       <c r="Q26" t="n">
@@ -2813,7 +2813,7 @@
       </c>
       <c r="W26" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -2825,14 +2825,14 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C27" t="n">
         <v>10</v>
       </c>
       <c r="D27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27" t="inlineStr">
         <is>
@@ -2840,31 +2840,31 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0.962331967759756</v>
+        <v>0.0288396195181323</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>0.61864406779661</v>
+        <v>0.771186440677966</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0.6205000000000001</v>
+        <v>1.155</v>
       </c>
       <c r="K27" t="n">
-        <v>-0.0073290246200747</v>
+        <v>0.0282046332046332</v>
       </c>
       <c r="L27" t="n">
-        <v>-0.0159886345339588</v>
+        <v>0.0032837216304661</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>0.058680086332996</v>
       </c>
       <c r="N27" t="n">
-        <v>-1.1811482062973</v>
+        <v>2.44195958481673</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
@@ -2873,7 +2873,7 @@
       </c>
       <c r="P27" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>Extremely unlikely improving</t>
         </is>
       </c>
       <c r="Q27" t="n">
@@ -2904,7 +2904,7 @@
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -2916,14 +2916,14 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>Chlorophyll A</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E28" t="inlineStr">
         <is>
@@ -2931,31 +2931,31 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0.998873393600307</v>
+        <v>0.999841756539903</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0.449152542372881</v>
+        <v>0.537931034482759</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0.029</v>
+        <v>70</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.0013940839694656</v>
+        <v>-4.07304438793275</v>
       </c>
       <c r="L28" t="n">
-        <v>-0.0019938468964753</v>
+        <v>-6.24568053058303</v>
       </c>
       <c r="M28" t="n">
-        <v>-0.0005568018553671</v>
+        <v>-2.23134484467548</v>
       </c>
       <c r="N28" t="n">
-        <v>-4.80718610160569</v>
+        <v>-5.81863483990393</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -2995,7 +2995,7 @@
       </c>
       <c r="W28" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>mg/m2</t>
         </is>
       </c>
     </row>
@@ -3007,11 +3007,11 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>Visual Clarity</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -3022,31 +3022,31 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0.183384291988499</v>
+        <v>0.999999606206932</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>0.0296296296296296</v>
       </c>
       <c r="H29" t="n">
-        <v>0.779661016949153</v>
+        <v>0.57037037037037</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.175</v>
+        <v>2.08</v>
       </c>
       <c r="K29" t="n">
-        <v>0.015498585572843</v>
+        <v>0.145017204870302</v>
       </c>
       <c r="L29" t="n">
-        <v>-0.0142134002253281</v>
+        <v>0.0956304713315634</v>
       </c>
       <c r="M29" t="n">
-        <v>0.0451940382452193</v>
+        <v>0.186042117950042</v>
       </c>
       <c r="N29" t="n">
-        <v>1.3190285593909</v>
+        <v>6.97198100337989</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -3055,7 +3055,7 @@
       </c>
       <c r="P29" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q29" t="n">
@@ -3086,7 +3086,7 @@
       </c>
       <c r="W29" t="inlineStr">
         <is>
-          <t>NTU/FNU</t>
+          <t>m</t>
         </is>
       </c>
     </row>
@@ -3098,14 +3098,14 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Chlorophyll A</t>
+          <t>Dissolved Oxygen Concentration</t>
         </is>
       </c>
       <c r="C30" t="n">
         <v>15</v>
       </c>
       <c r="D30" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E30" t="inlineStr">
         <is>
@@ -3113,31 +3113,31 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0.999900167897144</v>
+        <v>0.999936078544324</v>
       </c>
       <c r="G30" t="n">
         <v>0</v>
       </c>
       <c r="H30" t="n">
-        <v>0.54014598540146</v>
+        <v>0.806818181818182</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>70</v>
+        <v>10.435</v>
       </c>
       <c r="K30" t="n">
-        <v>-4.73386698689316</v>
+        <v>0.0697929936305729</v>
       </c>
       <c r="L30" t="n">
-        <v>-7.06584821428571</v>
+        <v>0.0399126300102573</v>
       </c>
       <c r="M30" t="n">
-        <v>-2.66939700687879</v>
+        <v>0.0919684253434922</v>
       </c>
       <c r="N30" t="n">
-        <v>-6.76266712413309</v>
+        <v>0.668835588218236</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3146,7 +3146,7 @@
       </c>
       <c r="P30" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q30" t="n">
@@ -3177,7 +3177,7 @@
       </c>
       <c r="W30" t="inlineStr">
         <is>
-          <t>mg/m2</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3189,46 +3189,46 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Visual Clarity</t>
+          <t>Dissolved Reactive Phosphorus</t>
         </is>
       </c>
       <c r="C31" t="n">
         <v>15</v>
       </c>
       <c r="D31" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0.999999995178413</v>
+        <v>0.999994498952656</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0277777777777778</v>
+        <v>0.0451977401129944</v>
       </c>
       <c r="H31" t="n">
-        <v>0.541666666666667</v>
+        <v>0.248587570621469</v>
       </c>
       <c r="I31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>2</v>
+        <v>0.014</v>
       </c>
       <c r="K31" t="n">
-        <v>0.145228628230616</v>
+        <v>-0.0006461380857375999</v>
       </c>
       <c r="L31" t="n">
-        <v>0.104007387153884</v>
+        <v>-0.0008978398228541</v>
       </c>
       <c r="M31" t="n">
-        <v>0.180910649679264</v>
+        <v>-0.0003870644767102</v>
       </c>
       <c r="N31" t="n">
-        <v>7.26143141153081</v>
+        <v>-4.61527204098323</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3268,7 +3268,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>m</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3280,7 +3280,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Dissolved Oxygen Concentration</t>
+          <t>E. coli</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -3295,31 +3295,31 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0.995124976817275</v>
+        <v>0.9110070904631909</v>
       </c>
       <c r="G32" t="n">
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>0.805714285714286</v>
+        <v>0.706214689265537</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>10.43</v>
+        <v>230</v>
       </c>
       <c r="K32" t="n">
-        <v>0.0497277059223965</v>
+        <v>-4.03337090561643</v>
       </c>
       <c r="L32" t="n">
-        <v>0.0200045641259697</v>
+        <v>-9.297603793428371</v>
       </c>
       <c r="M32" t="n">
-        <v>0.0799958402598573</v>
+        <v>0.465905717115305</v>
       </c>
       <c r="N32" t="n">
-        <v>0.476775703953945</v>
+        <v>-1.75363952418106</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3328,7 +3328,7 @@
       </c>
       <c r="P32" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q32" t="n">
@@ -3359,7 +3359,7 @@
       </c>
       <c r="W32" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>E. coli/100 mL</t>
         </is>
       </c>
     </row>
@@ -3371,7 +3371,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Dissolved Reactive Phosphorus</t>
+          <t>Ammoniacal Nitrogen (NH4)</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -3382,35 +3382,35 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope based on two censored values</t>
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0.999898384447768</v>
+        <v>0.386244615739807</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0454545454545455</v>
+        <v>0.224137931034483</v>
       </c>
       <c r="H33" t="n">
-        <v>0.267045454545455</v>
+        <v>0.770114942528736</v>
       </c>
       <c r="I33" t="n">
         <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>0.014</v>
+        <v>0.0203948537417496</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.0005831339562648999</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>-0.000874928161683</v>
+        <v>-0.0002220561047864</v>
       </c>
       <c r="M33" t="n">
-        <v>-0.0002851288056206</v>
+        <v>0.0003387141395681</v>
       </c>
       <c r="N33" t="n">
-        <v>-4.1652425447494</v>
+        <v>0</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3419,7 +3419,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q33" t="n">
@@ -3462,46 +3462,46 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>E. coli</t>
+          <t>Nitrite Nitrogen (NO2)</t>
         </is>
       </c>
       <c r="C34" t="n">
         <v>15</v>
       </c>
       <c r="D34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>ok</t>
+          <t>WARNING: Sen slope influenced by censored values</t>
         </is>
       </c>
       <c r="F34" t="n">
-        <v>0.981953542633893</v>
+        <v>0.620555792230215</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>0.197604790419162</v>
       </c>
       <c r="H34" t="n">
-        <v>0.6875</v>
+        <v>0.131736526946108</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J34" t="n">
-        <v>225</v>
+        <v>0.004</v>
       </c>
       <c r="K34" t="n">
-        <v>-6.32551639591406</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-11.0839579124977</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.33061564164136</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-2.81134062040625</v>
+        <v>0</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="P34" t="inlineStr">
         <is>
-          <t>Extremely likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q34" t="n">
@@ -3541,7 +3541,7 @@
       </c>
       <c r="W34" t="inlineStr">
         <is>
-          <t>E. coli/100 mL</t>
+          <t>mg/L</t>
         </is>
       </c>
     </row>
@@ -3553,7 +3553,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Ammoniacal Nitrogen (NH4)</t>
+          <t>Nitrate Nitrogen (NO3)</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -3564,35 +3564,35 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope based on two censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0.426501159655777</v>
+        <v>0.139564595055051</v>
       </c>
       <c r="G35" t="n">
-        <v>0.242774566473988</v>
+        <v>0.0239520958083832</v>
       </c>
       <c r="H35" t="n">
-        <v>0.751445086705202</v>
+        <v>0.904191616766467</v>
       </c>
       <c r="I35" t="n">
         <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>0.0191803378251352</v>
+        <v>0.3663</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>0.0033266618016086</v>
       </c>
       <c r="L35" t="n">
-        <v>-9.63675423584333e-05</v>
+        <v>-0.0016549249840861</v>
       </c>
       <c r="M35" t="n">
-        <v>0.0001917854333357</v>
+        <v>0.0081966338259441</v>
       </c>
       <c r="N35" t="n">
-        <v>0</v>
+        <v>0.908179580018736</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3601,7 +3601,7 @@
       </c>
       <c r="P35" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q35" t="n">
@@ -3644,7 +3644,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Nitrite Nitrogen (NO2)</t>
+          <t>pH</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -3655,35 +3655,35 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>WARNING: Sen slope influenced by censored values</t>
+          <t>ok</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0.163699073745234</v>
+        <v>0.999704985561974</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>0.141935483870968</v>
+        <v>0.5284090909090911</v>
       </c>
       <c r="I36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.004</v>
+        <v>7.505</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>0.020760215763714</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>0.0109603355191687</v>
       </c>
       <c r="M36" t="n">
-        <v>0.0001252602048266</v>
+        <v>0.0305170267584555</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>0.276618464539827</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
       </c>
       <c r="P36" t="inlineStr">
         <is>
-          <t>Unlikely improving</t>
+          <t>Virtually certain increasing</t>
         </is>
       </c>
       <c r="Q36" t="n">
@@ -3721,11 +3721,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W36" t="inlineStr">
-        <is>
-          <t>mg/L</t>
-        </is>
-      </c>
+      <c r="W36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -3735,7 +3731,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Nitrate Nitrogen (NO3)</t>
+          <t>SIN (Soluble Inorganic nitrogen)</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -3750,31 +3746,31 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>0.32534358262217</v>
+        <v>0.184110264412246</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0254777070063694</v>
+        <v>0.0056179775280898</v>
       </c>
       <c r="H37" t="n">
-        <v>0.904458598726115</v>
+        <v>0.870786516853933</v>
       </c>
       <c r="I37" t="n">
         <v>1</v>
       </c>
       <c r="J37" t="n">
-        <v>0.368</v>
+        <v>0.427</v>
       </c>
       <c r="K37" t="n">
-        <v>0.0019524264963759</v>
+        <v>0.0019979299829641</v>
       </c>
       <c r="L37" t="n">
-        <v>-0.0030489451792938</v>
+        <v>-0.0022232884852202</v>
       </c>
       <c r="M37" t="n">
-        <v>0.0067461223344182</v>
+        <v>0.0062784780640207</v>
       </c>
       <c r="N37" t="n">
-        <v>0.530550678363036</v>
+        <v>0.46789929343422</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
@@ -3814,7 +3810,7 @@
       </c>
       <c r="W37" t="inlineStr">
         <is>
-          <t>mg/L</t>
+          <t>g/m3</t>
         </is>
       </c>
     </row>
@@ -3826,14 +3822,14 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>pH</t>
+          <t>Total Nitrogen</t>
         </is>
       </c>
       <c r="C38" t="n">
         <v>15</v>
       </c>
       <c r="D38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E38" t="inlineStr">
         <is>
@@ -3841,31 +3837,31 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>0.999996551525678</v>
+        <v>0.6429989406100241</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0.542857142857143</v>
+        <v>0.485875706214689</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>7.5</v>
+        <v>0.64</v>
       </c>
       <c r="K38" t="n">
-        <v>0.0264499670836075</v>
+        <v>-0.0008947250889415</v>
       </c>
       <c r="L38" t="n">
-        <v>0.0169075682994377</v>
+        <v>-0.005567996795021</v>
       </c>
       <c r="M38" t="n">
-        <v>0.035864273194944</v>
+        <v>0.0027100422321096</v>
       </c>
       <c r="N38" t="n">
-        <v>0.352666227781433</v>
+        <v>-0.139800795147117</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
@@ -3874,7 +3870,7 @@
       </c>
       <c r="P38" t="inlineStr">
         <is>
-          <t>Virtually certain increasing</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q38" t="n">
@@ -3903,7 +3899,11 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W38" t="inlineStr"/>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -3913,7 +3913,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>SIN (Soluble Inorganic nitrogen)</t>
+          <t>Total Phosphorus</t>
         </is>
       </c>
       <c r="C39" t="n">
@@ -3928,31 +3928,31 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>0.476669481469921</v>
+        <v>0.999952972044363</v>
       </c>
       <c r="G39" t="n">
         <v>0.0056497175141242</v>
       </c>
       <c r="H39" t="n">
-        <v>0.864406779661017</v>
+        <v>0.361581920903955</v>
       </c>
       <c r="I39" t="n">
         <v>1</v>
       </c>
       <c r="J39" t="n">
-        <v>0.428</v>
+        <v>0.029</v>
       </c>
       <c r="K39" t="n">
-        <v>0.0002366842079828</v>
+        <v>-0.0008809748622038</v>
       </c>
       <c r="L39" t="n">
-        <v>-0.0037212637379861</v>
+        <v>-0.0012952515660507</v>
       </c>
       <c r="M39" t="n">
-        <v>0.0039060614384648</v>
+        <v>-0.0004993164730006</v>
       </c>
       <c r="N39" t="n">
-        <v>0.0553000485941236</v>
+        <v>-3.03784435242712</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -3961,7 +3961,7 @@
       </c>
       <c r="P39" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Virtually certain improving</t>
         </is>
       </c>
       <c r="Q39" t="n">
@@ -4004,14 +4004,14 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Total Nitrogen</t>
+          <t>Turbidity</t>
         </is>
       </c>
       <c r="C40" t="n">
         <v>15</v>
       </c>
       <c r="D40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E40" t="inlineStr">
         <is>
@@ -4019,31 +4019,31 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.887187347377048</v>
+        <v>0.865711672013854</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0.494318181818182</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0.6304999999999999</v>
+        <v>1.23</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.0033234758871701</v>
+        <v>-0.0106860337392442</v>
       </c>
       <c r="L40" t="n">
-        <v>-0.0083352350524874</v>
+        <v>-0.0281048243816039</v>
       </c>
       <c r="M40" t="n">
-        <v>0.000771532649064</v>
+        <v>0.005059367103657</v>
       </c>
       <c r="N40" t="n">
-        <v>-0.5271175078779</v>
+        <v>-0.868783230832858</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
@@ -4083,7 +4083,7 @@
       </c>
       <c r="W40" t="inlineStr">
         <is>
-          <t>g/m3</t>
+          <t>NTU/FNU</t>
         </is>
       </c>
     </row>
@@ -4095,46 +4095,46 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Total Phosphorus</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="F41" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
+      <c r="H41" t="n">
         <v>1</v>
       </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>0.999784415655397</v>
-      </c>
-      <c r="G41" t="n">
-        <v>0.0056818181818181</v>
-      </c>
-      <c r="H41" t="n">
-        <v>0.363636363636364</v>
-      </c>
       <c r="I41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.029</v>
+        <v>0.286</v>
       </c>
       <c r="K41" t="n">
-        <v>-0.0008301151799662</v>
+        <v>0.0055892483423124</v>
       </c>
       <c r="L41" t="n">
-        <v>-0.0012490321353406</v>
+        <v>-0.112826314802045</v>
       </c>
       <c r="M41" t="n">
-        <v>-0.0004914525457958</v>
+        <v>0.0785581003016452</v>
       </c>
       <c r="N41" t="n">
-        <v>-2.86246613781463</v>
+        <v>1.95428263717219</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
@@ -4143,7 +4143,7 @@
       </c>
       <c r="P41" t="inlineStr">
         <is>
-          <t>Virtually certain improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q41" t="n">
@@ -4172,11 +4172,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W41" t="inlineStr">
-        <is>
-          <t>g/m3</t>
-        </is>
-      </c>
+      <c r="W41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -4186,11 +4182,11 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Turbidity</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="D42" t="b">
         <v>0</v>
@@ -4201,31 +4197,31 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>0.857910807810346</v>
+        <v>0.768783636774762</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7215909090909089</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1.235</v>
+        <v>91.54000000000001</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0107321356624842</v>
+        <v>3.27256799376017</v>
       </c>
       <c r="L42" t="n">
-        <v>-0.0287187134701432</v>
+        <v>-11.4550441001775</v>
       </c>
       <c r="M42" t="n">
-        <v>0.0059007560877763</v>
+        <v>10.9702607917517</v>
       </c>
       <c r="N42" t="n">
-        <v>-0.868998839067545</v>
+        <v>3.57501419462549</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
@@ -4263,11 +4259,7 @@
           <t>Whau_3c</t>
         </is>
       </c>
-      <c r="W42" t="inlineStr">
-        <is>
-          <t>NTU/FNU</t>
-        </is>
-      </c>
+      <c r="W42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -4277,7 +4269,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C43" t="n">
@@ -4292,7 +4284,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0.5</v>
+        <v>0.110335680959923</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -4304,19 +4296,19 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0.249</v>
+        <v>3.455</v>
       </c>
       <c r="K43" t="n">
-        <v>0.0040781285031712</v>
+        <v>-0.230470799008835</v>
       </c>
       <c r="L43" t="n">
-        <v>-0.112826314802045</v>
+        <v>-0.663939138530292</v>
       </c>
       <c r="M43" t="n">
-        <v>0.0664327321144214</v>
+        <v>-0.0360058808114748</v>
       </c>
       <c r="N43" t="n">
-        <v>1.63780261171535</v>
+        <v>-6.67064541270144</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -4325,7 +4317,7 @@
       </c>
       <c r="P43" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Unlikely improving</t>
         </is>
       </c>
       <c r="Q43" t="n">
@@ -4364,11 +4356,11 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
+          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -4379,7 +4371,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0.5</v>
+        <v>0.946297681834873</v>
       </c>
       <c r="G44" t="n">
         <v>0</v>
@@ -4391,19 +4383,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>84.67</v>
+        <v>0.2395</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.0620051771241666</v>
+        <v>0.0108113017154389</v>
       </c>
       <c r="L44" t="n">
-        <v>-12.4144490533714</v>
+        <v>-0.0007639403976639</v>
       </c>
       <c r="M44" t="n">
-        <v>5.20581577139452</v>
+        <v>0.0229261996122643</v>
       </c>
       <c r="N44" t="n">
-        <v>-0.07323157803728191</v>
+        <v>4.51411345112273</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
@@ -4412,7 +4404,7 @@
       </c>
       <c r="P44" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Very likely improving</t>
         </is>
       </c>
       <c r="Q44" t="n">
@@ -4451,11 +4443,11 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
+          <t>MCI (Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D45" t="b">
         <v>0</v>
@@ -4466,7 +4458,7 @@
         </is>
       </c>
       <c r="F45" t="n">
-        <v>0.59675202974633</v>
+        <v>0.894751149972331</v>
       </c>
       <c r="G45" t="n">
         <v>0</v>
@@ -4478,19 +4470,19 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>3.455</v>
+        <v>83.875</v>
       </c>
       <c r="K45" t="n">
-        <v>0.130471618761141</v>
+        <v>1.47874493927126</v>
       </c>
       <c r="L45" t="n">
-        <v>-0.56688975984546</v>
+        <v>-0.884257393094211</v>
       </c>
       <c r="M45" t="n">
-        <v>0.530254118490916</v>
+        <v>2.47337508853554</v>
       </c>
       <c r="N45" t="n">
-        <v>3.77631313346283</v>
+        <v>1.76303420479434</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
@@ -4499,7 +4491,7 @@
       </c>
       <c r="P45" t="inlineStr">
         <is>
-          <t>As likely as not improving</t>
+          <t>Likely improving</t>
         </is>
       </c>
       <c r="Q45" t="n">
@@ -4538,7 +4530,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ASPM (Macroinvertebrate Average Score Per Metric)</t>
+          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
         </is>
       </c>
       <c r="C46" t="n">
@@ -4553,31 +4545,31 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0.912345959595863</v>
+        <v>0.6061921166488971</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>0.23</v>
+        <v>3.23</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0160524394314877</v>
+        <v>0.013737658674189</v>
       </c>
       <c r="L46" t="n">
-        <v>-0.010650940795208</v>
+        <v>-0.0893011947294594</v>
       </c>
       <c r="M46" t="n">
-        <v>0.0286214136479897</v>
+        <v>0.0895159798204133</v>
       </c>
       <c r="N46" t="n">
-        <v>6.97932149195117</v>
+        <v>0.425314510036811</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4586,7 +4578,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>Very likely improving</t>
+          <t>As likely as not improving</t>
         </is>
       </c>
       <c r="Q46" t="n">
@@ -4616,180 +4608,6 @@
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Makotuku at d/s Raetihi STP</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>MCI (Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C47" t="n">
-        <v>10</v>
-      </c>
-      <c r="D47" t="b">
-        <v>0</v>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>0.5</v>
-      </c>
-      <c r="G47" t="n">
-        <v>0</v>
-      </c>
-      <c r="H47" t="n">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>0</v>
-      </c>
-      <c r="J47" t="n">
-        <v>83.875</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0.192763879369432</v>
-      </c>
-      <c r="L47" t="n">
-        <v>-2.06655621979949</v>
-      </c>
-      <c r="M47" t="n">
-        <v>1.39530281348391</v>
-      </c>
-      <c r="N47" t="n">
-        <v>0.229822806997832</v>
-      </c>
-      <c r="O47" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P47" t="inlineStr">
-        <is>
-          <t>As likely as not improving</t>
-        </is>
-      </c>
-      <c r="Q47" t="n">
-        <v>1796683.601</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5632147.322</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T47" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>Lower Whangaehu</t>
-        </is>
-      </c>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>Whau_3c</t>
-        </is>
-      </c>
-      <c r="W47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Makotuku at d/s Raetihi STP</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>QMCI (Quantitative Macroinvertebrate Community Index)</t>
-        </is>
-      </c>
-      <c r="C48" t="n">
-        <v>10</v>
-      </c>
-      <c r="D48" t="b">
-        <v>0</v>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>ok</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>0.852746303159945</v>
-      </c>
-      <c r="G48" t="n">
-        <v>0</v>
-      </c>
-      <c r="H48" t="n">
-        <v>0.888888888888889</v>
-      </c>
-      <c r="I48" t="n">
-        <v>0</v>
-      </c>
-      <c r="J48" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="K48" t="n">
-        <v>0.0179230574932494</v>
-      </c>
-      <c r="L48" t="n">
-        <v>-0.0706410589252626</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0.139131198928034</v>
-      </c>
-      <c r="N48" t="n">
-        <v>0.548105733738512</v>
-      </c>
-      <c r="O48" t="inlineStr">
-        <is>
-          <t>Impact</t>
-        </is>
-      </c>
-      <c r="P48" t="inlineStr">
-        <is>
-          <t>Likely improving</t>
-        </is>
-      </c>
-      <c r="Q48" t="n">
-        <v>1796683.601</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5632147.322</v>
-      </c>
-      <c r="S48" t="inlineStr">
-        <is>
-          <t>Ruapehu District</t>
-        </is>
-      </c>
-      <c r="T48" t="inlineStr">
-        <is>
-          <t>Whangaehu</t>
-        </is>
-      </c>
-      <c r="U48" t="inlineStr">
-        <is>
-          <t>Lower Whangaehu</t>
-        </is>
-      </c>
-      <c r="V48" t="inlineStr">
-        <is>
-          <t>Whau_3c</t>
-        </is>
-      </c>
-      <c r="W48" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/trend_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
+++ b/trend_results/Rivers/MakotukuatdsRaetihiSTP_3f235b1b5e.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="66">
   <si>
     <t>site name</t>
   </si>
@@ -142,46 +142,43 @@
     <t>WARNING: Sen slope influenced by censored values</t>
   </si>
   <si>
-    <t>WARNING: Sen slope based on two censored values</t>
-  </si>
-  <si>
     <t>Impact</t>
   </si>
   <si>
+    <t>Unlikely improving</t>
+  </si>
+  <si>
+    <t>Extremely unlikely improving</t>
+  </si>
+  <si>
+    <t>Unlikely increasing</t>
+  </si>
+  <si>
     <t>Likely improving</t>
   </si>
   <si>
-    <t>Unlikely improving</t>
-  </si>
-  <si>
-    <t>Unlikely increasing</t>
+    <t>Virtually certain improving</t>
+  </si>
+  <si>
+    <t>Virtually certain increasing</t>
+  </si>
+  <si>
+    <t>As likely as not improving</t>
+  </si>
+  <si>
+    <t>Exceptionally unlikely improving</t>
+  </si>
+  <si>
+    <t>Likely increasing</t>
+  </si>
+  <si>
+    <t>Extremely likely improving</t>
   </si>
   <si>
     <t>Very unlikely improving</t>
   </si>
   <si>
-    <t>As likely as not improving</t>
-  </si>
-  <si>
-    <t>Virtually certain improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely improving</t>
-  </si>
-  <si>
-    <t>Exceptionally unlikely increasing</t>
-  </si>
-  <si>
-    <t>Virtually certain increasing</t>
-  </si>
-  <si>
-    <t>Likely increasing</t>
-  </si>
-  <si>
-    <t>Extremely likely improving</t>
-  </si>
-  <si>
-    <t>Extremely unlikely improving</t>
+    <t>Extremely likely increasing</t>
   </si>
   <si>
     <t>Very likely improving</t>
@@ -666,38 +663,38 @@
         <v>40</v>
       </c>
       <c r="F2">
-        <v>0.680061299106437</v>
+        <v>0.222916044698869</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>0.808510638297872</v>
+        <v>0.871794871794872</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>47</v>
+        <v>44.5</v>
       </c>
       <c r="K2">
-        <v>-1.93906853281853</v>
+        <v>3.79075091575092</v>
       </c>
       <c r="L2">
-        <v>-8.633659164241021</v>
+        <v>-4.58334476638718</v>
       </c>
       <c r="M2">
-        <v>4.32752801160052</v>
+        <v>11.9936035565149</v>
       </c>
       <c r="N2">
-        <v>-4.12567772940113</v>
+        <v>8.51854138370992</v>
       </c>
       <c r="O2" t="s">
+        <v>42</v>
+      </c>
+      <c r="P2" t="s">
         <v>43</v>
       </c>
-      <c r="P2" t="s">
-        <v>44</v>
-      </c>
       <c r="Q2">
         <v>1796683.601</v>
       </c>
@@ -705,19 +702,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V2" t="s">
+        <v>59</v>
+      </c>
+      <c r="W2" t="s">
         <v>60</v>
-      </c>
-      <c r="W2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -737,37 +734,37 @@
         <v>40</v>
       </c>
       <c r="F3">
-        <v>0.102448551164654</v>
+        <v>0.019881377079248</v>
       </c>
       <c r="G3">
-        <v>0.0333333333333333</v>
+        <v>0.0476190476190476</v>
       </c>
       <c r="H3">
-        <v>0.833333333333333</v>
+        <v>0.857142857142857</v>
       </c>
       <c r="I3">
         <v>1</v>
       </c>
       <c r="J3">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="K3">
-        <v>-0.359852216748768</v>
+        <v>-0.767812881562881</v>
       </c>
       <c r="L3">
-        <v>-0.719423396943512</v>
+        <v>-1.03397742028445</v>
       </c>
       <c r="M3">
-        <v>0.105097690660375</v>
+        <v>-0.107239801906016</v>
       </c>
       <c r="N3">
-        <v>-11.9950738916256</v>
+        <v>-27.4218886272458</v>
       </c>
       <c r="O3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q3">
         <v>1796683.601</v>
@@ -776,19 +773,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -808,37 +805,37 @@
         <v>40</v>
       </c>
       <c r="F4">
-        <v>0.150355523574156</v>
+        <v>0.229886323274283</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.948275862068966</v>
+        <v>0.931034482758621</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>10.775</v>
+        <v>10.725</v>
       </c>
       <c r="K4">
-        <v>-0.0300412510710904</v>
+        <v>-0.0447364354395605</v>
       </c>
       <c r="L4">
-        <v>-0.156543565179966</v>
+        <v>-0.161389550408802</v>
       </c>
       <c r="M4">
-        <v>0.0240159897342087</v>
+        <v>0.0382678647274231</v>
       </c>
       <c r="N4">
-        <v>-0.278805114348867</v>
+        <v>-0.417122941161403</v>
       </c>
       <c r="O4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="Q4">
         <v>1796683.601</v>
@@ -847,19 +844,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -879,7 +876,7 @@
         <v>40</v>
       </c>
       <c r="F5">
-        <v>0.0756741314236359</v>
+        <v>0.0178355484650641</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -891,25 +888,25 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0.0105</v>
+        <v>0.008500000000000001</v>
       </c>
       <c r="K5">
-        <v>0.000717583497053</v>
+        <v>0.0008553864168618</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.0016995358765182</v>
+        <v>0.0018666227057597</v>
       </c>
       <c r="N5">
-        <v>6.83412854336233</v>
+        <v>10.0633696101391</v>
       </c>
       <c r="O5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P5" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="Q5">
         <v>1796683.601</v>
@@ -918,19 +915,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T5" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U5" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -944,44 +941,44 @@
         <v>5</v>
       </c>
       <c r="D6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E6" t="s">
         <v>40</v>
       </c>
       <c r="F6">
-        <v>0.116129662181172</v>
+        <v>0.302910845276168</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>0.810344827586207</v>
+        <v>0.913793103448276</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="K6">
-        <v>21.2935752528257</v>
+        <v>16.2616882602994</v>
       </c>
       <c r="L6">
-        <v>-8.572226478484151</v>
+        <v>-12.6809725368144</v>
       </c>
       <c r="M6">
-        <v>49.4969561423627</v>
+        <v>66.3572916986825</v>
       </c>
       <c r="N6">
-        <v>11.2071448699083</v>
+        <v>8.171702643366521</v>
       </c>
       <c r="O6" t="s">
+        <v>42</v>
+      </c>
+      <c r="P6" t="s">
         <v>43</v>
       </c>
-      <c r="P6" t="s">
-        <v>45</v>
-      </c>
       <c r="Q6">
         <v>1796683.601</v>
       </c>
@@ -989,19 +986,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -1021,7 +1018,7 @@
         <v>40</v>
       </c>
       <c r="F7">
-        <v>0.5422139905835019</v>
+        <v>0.720768890633331</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1033,25 +1030,25 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.0255936546552685</v>
+        <v>0.0215247813937199</v>
       </c>
       <c r="K7">
-        <v>-0.0001176674328511</v>
+        <v>-0.0007145396669525</v>
       </c>
       <c r="L7">
-        <v>-0.0019991950845075</v>
+        <v>-0.00362531187347</v>
       </c>
       <c r="M7">
-        <v>0.0024364483459966</v>
+        <v>0.0018047919306275</v>
       </c>
       <c r="N7">
-        <v>-0.459752366107991</v>
+        <v>-3.31961404802495</v>
       </c>
       <c r="O7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P7" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q7">
         <v>1796683.601</v>
@@ -1060,19 +1057,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S7" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T7" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U7" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V7" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -1092,37 +1089,37 @@
         <v>40</v>
       </c>
       <c r="F8">
-        <v>0.997465419890311</v>
+        <v>0.999192956062498</v>
       </c>
       <c r="G8">
-        <v>0.0862068965517241</v>
+        <v>0.137931034482759</v>
       </c>
       <c r="H8">
-        <v>0.137931034482759</v>
+        <v>0.103448275862069</v>
       </c>
       <c r="I8">
         <v>1</v>
       </c>
       <c r="J8">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="K8">
-        <v>-0.0004537267080745</v>
+        <v>-0.0004179061784897</v>
       </c>
       <c r="L8">
-        <v>-0.0007180537352555</v>
+        <v>-0.0006683837739264</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>-11.3431677018634</v>
+        <v>-13.9302059496568</v>
       </c>
       <c r="O8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q8">
         <v>1796683.601</v>
@@ -1131,19 +1128,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1163,38 +1160,38 @@
         <v>40</v>
       </c>
       <c r="F9">
-        <v>2.51043042057803E-05</v>
+        <v>0.302910845276168</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.9655172413793101</v>
+        <v>0.982758620689655</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.3445</v>
+        <v>0.356</v>
       </c>
       <c r="K9">
-        <v>0.0542790638470129</v>
+        <v>0.0052529499189335</v>
       </c>
       <c r="L9">
-        <v>0.0360699776031987</v>
+        <v>-0.018080022795823</v>
       </c>
       <c r="M9">
-        <v>0.07227828922601259</v>
+        <v>0.0244736065334527</v>
       </c>
       <c r="N9">
-        <v>15.7558966174203</v>
+        <v>1.4755477300375</v>
       </c>
       <c r="O9" t="s">
+        <v>42</v>
+      </c>
+      <c r="P9" t="s">
         <v>43</v>
       </c>
-      <c r="P9" t="s">
-        <v>50</v>
-      </c>
       <c r="Q9">
         <v>1796683.601</v>
       </c>
@@ -1202,19 +1199,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U9" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1228,43 +1225,43 @@
         <v>5</v>
       </c>
       <c r="D10" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
         <v>40</v>
       </c>
       <c r="F10">
-        <v>0.0008986369257949</v>
+        <v>0.122051445048618</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.672413793103448</v>
+        <v>0.6610169491525421</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>7.58</v>
+        <v>7.54</v>
       </c>
       <c r="K10">
-        <v>-0.079892464678179</v>
+        <v>-0.0289880952380955</v>
       </c>
       <c r="L10">
-        <v>-0.110377747252748</v>
+        <v>-0.0661493709389829</v>
       </c>
       <c r="M10">
-        <v>-0.0398492930083718</v>
+        <v>0.0113478989454479</v>
       </c>
       <c r="N10">
-        <v>-1.05399029918442</v>
+        <v>-0.384457496526465</v>
       </c>
       <c r="O10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P10" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="Q10">
         <v>1796683.601</v>
@@ -1273,16 +1270,16 @@
         <v>5632147.322</v>
       </c>
       <c r="S10" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T10" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V10" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1302,37 +1299,37 @@
         <v>40</v>
       </c>
       <c r="F11">
-        <v>0.0001163392557265</v>
+        <v>0.765336531722199</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0.9830508474576271</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.416</v>
+        <v>0.418</v>
       </c>
       <c r="K11">
-        <v>0.0481254848093083</v>
+        <v>-0.0057147959183673</v>
       </c>
       <c r="L11">
-        <v>0.0289204406007653</v>
+        <v>-0.0232344016695964</v>
       </c>
       <c r="M11">
-        <v>0.06395640963004851</v>
+        <v>0.0182556262478602</v>
       </c>
       <c r="N11">
-        <v>11.5686261560837</v>
+        <v>-1.36717605702568</v>
       </c>
       <c r="O11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P11" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="Q11">
         <v>1796683.601</v>
@@ -1341,19 +1338,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W11" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1373,13 +1370,13 @@
         <v>40</v>
       </c>
       <c r="F12">
-        <v>5.12054694559899E-08</v>
+        <v>0.187521811779306</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.672413793103448</v>
+        <v>0.637931034482759</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -1388,23 +1385,23 @@
         <v>0.5649999999999999</v>
       </c>
       <c r="K12">
-        <v>0.0500516752983858</v>
+        <v>0.0186036912937528</v>
       </c>
       <c r="L12">
-        <v>0.0398658106669022</v>
+        <v>-0.0099923588848415</v>
       </c>
       <c r="M12">
-        <v>0.06530273830152659</v>
+        <v>0.0416281776480522</v>
       </c>
       <c r="N12">
-        <v>8.85870359263466</v>
+        <v>3.29268872455801</v>
       </c>
       <c r="O12" t="s">
+        <v>42</v>
+      </c>
+      <c r="P12" t="s">
         <v>43</v>
       </c>
-      <c r="P12" t="s">
-        <v>50</v>
-      </c>
       <c r="Q12">
         <v>1796683.601</v>
       </c>
@@ -1412,19 +1409,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1444,7 +1441,7 @@
         <v>40</v>
       </c>
       <c r="F13">
-        <v>0.0092108254510717</v>
+        <v>0.250911182685222</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -1459,23 +1456,23 @@
         <v>0.023</v>
       </c>
       <c r="K13">
-        <v>0.0020519662921348</v>
+        <v>0.000586276083467</v>
       </c>
       <c r="L13">
-        <v>0.0006293038986039</v>
+        <v>-0.0009261190929301</v>
       </c>
       <c r="M13">
-        <v>0.0039944786700112</v>
+        <v>0.0023809662523895</v>
       </c>
       <c r="N13">
-        <v>8.92159257449927</v>
+        <v>2.54902644985694</v>
       </c>
       <c r="O13" t="s">
+        <v>42</v>
+      </c>
+      <c r="P13" t="s">
         <v>43</v>
       </c>
-      <c r="P13" t="s">
-        <v>50</v>
-      </c>
       <c r="Q13">
         <v>1796683.601</v>
       </c>
@@ -1483,19 +1480,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S13" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T13" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U13" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W13" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1515,37 +1512,37 @@
         <v>40</v>
       </c>
       <c r="F14">
-        <v>0.358569315140227</v>
+        <v>0.8539172334976179</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.913793103448276</v>
+        <v>0.862068965517241</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>1.21</v>
+        <v>1.215</v>
       </c>
       <c r="K14">
-        <v>0.0158116883116883</v>
+        <v>-0.0446264097744361</v>
       </c>
       <c r="L14">
-        <v>-0.059372048306226</v>
+        <v>-0.12944188286196</v>
       </c>
       <c r="M14">
-        <v>0.124528321136174</v>
+        <v>0.0330097890942376</v>
       </c>
       <c r="N14">
-        <v>1.30675110013953</v>
+        <v>-3.67295553699062</v>
       </c>
       <c r="O14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P14" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q14">
         <v>1796683.601</v>
@@ -1554,19 +1551,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1586,37 +1583,37 @@
         <v>40</v>
       </c>
       <c r="F15">
-        <v>0.994962039280616</v>
+        <v>0.885009483542078</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.6326530612244901</v>
+        <v>0.626373626373626</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="K15">
-        <v>-4.63123415046492</v>
+        <v>-2.26511627906977</v>
       </c>
       <c r="L15">
-        <v>-7.70127112450787</v>
+        <v>-5.43876809808684</v>
       </c>
       <c r="M15">
-        <v>-1.52819320563506</v>
+        <v>0.81301519431831</v>
       </c>
       <c r="N15">
-        <v>-7.12497561609988</v>
+        <v>-3.77519379844961</v>
       </c>
       <c r="O15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P15" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="Q15">
         <v>1796683.601</v>
@@ -1625,19 +1622,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S15" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U15" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V15" t="s">
+        <v>59</v>
+      </c>
+      <c r="W15" t="s">
         <v>60</v>
-      </c>
-      <c r="W15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1657,13 +1654,13 @@
         <v>40</v>
       </c>
       <c r="F16">
-        <v>0.570596151488816</v>
+        <v>0.213930834733573</v>
       </c>
       <c r="G16">
-        <v>0.0506329113924051</v>
+        <v>0.0579710144927536</v>
       </c>
       <c r="H16">
-        <v>0.683544303797468</v>
+        <v>0.72463768115942</v>
       </c>
       <c r="I16">
         <v>3</v>
@@ -1672,23 +1669,23 @@
         <v>2.9</v>
       </c>
       <c r="K16">
-        <v>-0.014267578125</v>
+        <v>-0.102521416664578</v>
       </c>
       <c r="L16">
-        <v>-0.114404324946842</v>
+        <v>-0.216972211738118</v>
       </c>
       <c r="M16">
-        <v>0.0716592502974695</v>
+        <v>0.0285065668811291</v>
       </c>
       <c r="N16">
-        <v>-0.491985452586206</v>
+        <v>-3.53522126429578</v>
       </c>
       <c r="O16" t="s">
+        <v>42</v>
+      </c>
+      <c r="P16" t="s">
         <v>43</v>
       </c>
-      <c r="P16" t="s">
-        <v>48</v>
-      </c>
       <c r="Q16">
         <v>1796683.601</v>
       </c>
@@ -1696,19 +1693,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1728,37 +1725,37 @@
         <v>40</v>
       </c>
       <c r="F17">
-        <v>0.999168636345128</v>
+        <v>0.997446131910049</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.872881355932203</v>
+        <v>0.88135593220339</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>10.525</v>
+        <v>10.66</v>
       </c>
       <c r="K17">
-        <v>0.0846816961234254</v>
+        <v>0.06543466590880399</v>
       </c>
       <c r="L17">
-        <v>0.0432367231483616</v>
+        <v>0.029711922411404</v>
       </c>
       <c r="M17">
-        <v>0.123332398875479</v>
+        <v>0.0914374452682384</v>
       </c>
       <c r="N17">
-        <v>0.804576685258199</v>
+        <v>0.613833638919363</v>
       </c>
       <c r="O17" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P17" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q17">
         <v>1796683.601</v>
@@ -1767,19 +1764,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S17" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T17" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U17" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V17" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W17" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1799,37 +1796,37 @@
         <v>40</v>
       </c>
       <c r="F18">
-        <v>0.996626691399223</v>
+        <v>0.9926058463081709</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.279661016949153</v>
+        <v>0.26271186440678</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="K18">
-        <v>-0.000648181011535</v>
+        <v>-0.0004809084924292</v>
       </c>
       <c r="L18">
-        <v>-0.0010439913124646</v>
+        <v>-0.0008415898617511</v>
       </c>
       <c r="M18">
-        <v>-0.0002443254663547</v>
+        <v>-0.0001333254591388</v>
       </c>
       <c r="N18">
-        <v>-4.98600778103884</v>
+        <v>-4.00757077024358</v>
       </c>
       <c r="O18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q18">
         <v>1796683.601</v>
@@ -1838,19 +1835,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T18" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U18" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V18" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W18" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1870,37 +1867,37 @@
         <v>40</v>
       </c>
       <c r="F19">
-        <v>0.271238618944247</v>
+        <v>0.563099563192431</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.6949152542372879</v>
+        <v>0.703389830508475</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>194</v>
+        <v>199</v>
       </c>
       <c r="K19">
-        <v>3.06960207463415</v>
+        <v>-0.0285909980430532</v>
       </c>
       <c r="L19">
-        <v>-6.53182441462985</v>
+        <v>-8.46345840556566</v>
       </c>
       <c r="M19">
-        <v>11.3102995959789</v>
+        <v>7.52575549450549</v>
       </c>
       <c r="N19">
-        <v>1.58226911063616</v>
+        <v>-0.0143673357000268</v>
       </c>
       <c r="O19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q19">
         <v>1796683.601</v>
@@ -1909,19 +1906,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T19" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U19" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V19" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W19" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1941,13 +1938,13 @@
         <v>41</v>
       </c>
       <c r="F20">
-        <v>8.266598619991499E-06</v>
+        <v>0.0004077487889511</v>
       </c>
       <c r="G20">
-        <v>0.267241379310345</v>
+        <v>0.25</v>
       </c>
       <c r="H20">
-        <v>0.732758620689655</v>
+        <v>0.75</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -1956,19 +1953,19 @@
         <v>0.0186458036194274</v>
       </c>
       <c r="K20">
-        <v>0.0019498488532054</v>
+        <v>0.0015498599950433</v>
       </c>
       <c r="L20">
-        <v>0.0011158633891653</v>
+        <v>0.0005656874182720999</v>
       </c>
       <c r="M20">
-        <v>0.0026731878852203</v>
+        <v>0.0023619915177327</v>
       </c>
       <c r="N20">
-        <v>10.4573066036899</v>
+        <v>8.31211154357822</v>
       </c>
       <c r="O20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P20" t="s">
         <v>50</v>
@@ -1980,19 +1977,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S20" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T20" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U20" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -2009,16 +2006,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F21">
-        <v>0.999629974834197</v>
+        <v>0.999995430465157</v>
       </c>
       <c r="G21">
-        <v>0.076271186440678</v>
+        <v>0.110169491525424</v>
       </c>
       <c r="H21">
-        <v>0.144067796610169</v>
+        <v>0.127118644067797</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -2027,22 +2024,22 @@
         <v>0.004</v>
       </c>
       <c r="K21">
-        <v>-0.0002260210396039</v>
+        <v>-0.0002675824175824</v>
       </c>
       <c r="L21">
-        <v>-0.0003577467538905</v>
+        <v>-0.0003865079365079</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>-0.000153967692833</v>
       </c>
       <c r="N21">
-        <v>-5.65052599009901</v>
+        <v>-6.68956043956044</v>
       </c>
       <c r="O21" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P21" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q21">
         <v>1796683.601</v>
@@ -2051,19 +2048,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S21" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T21" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U21" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V21" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W21" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -2083,38 +2080,38 @@
         <v>40</v>
       </c>
       <c r="F22">
-        <v>0.0087153652628899</v>
+        <v>0.237923051962665</v>
       </c>
       <c r="G22">
-        <v>0.0254237288135593</v>
+        <v>0.008474576271186401</v>
       </c>
       <c r="H22">
-        <v>0.940677966101695</v>
+        <v>0.932203389830508</v>
       </c>
       <c r="I22">
         <v>1</v>
       </c>
       <c r="J22">
-        <v>0.3615</v>
+        <v>0.356</v>
       </c>
       <c r="K22">
-        <v>0.0131692732029117</v>
+        <v>0.0042059650119994</v>
       </c>
       <c r="L22">
-        <v>0.0055691739744133</v>
+        <v>-0.0047538281480736</v>
       </c>
       <c r="M22">
-        <v>0.0198877596205089</v>
+        <v>0.0112935925941889</v>
       </c>
       <c r="N22">
-        <v>3.64295247660076</v>
+        <v>1.18145084606727</v>
       </c>
       <c r="O22" t="s">
+        <v>42</v>
+      </c>
+      <c r="P22" t="s">
         <v>43</v>
       </c>
-      <c r="P22" t="s">
-        <v>50</v>
-      </c>
       <c r="Q22">
         <v>1796683.601</v>
       </c>
@@ -2122,19 +2119,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S22" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W22" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2154,37 +2151,37 @@
         <v>40</v>
       </c>
       <c r="F23">
-        <v>0.893424818226342</v>
+        <v>0.784883119025088</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.5169491525423729</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>7.52</v>
+        <v>7.535</v>
       </c>
       <c r="K23">
-        <v>0.008573943661971801</v>
+        <v>0.0051516220028209</v>
       </c>
       <c r="L23">
-        <v>-0.0028184085561204</v>
+        <v>-0.0073061720978385</v>
       </c>
       <c r="M23">
-        <v>0.0216576994324889</v>
+        <v>0.0185726680598405</v>
       </c>
       <c r="N23">
-        <v>0.114015208270902</v>
+        <v>0.06836923693192989</v>
       </c>
       <c r="O23" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P23" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="Q23">
         <v>1796683.601</v>
@@ -2193,16 +2190,16 @@
         <v>5632147.322</v>
       </c>
       <c r="S23" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T23" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U23" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V23" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2222,13 +2219,13 @@
         <v>40</v>
       </c>
       <c r="F24">
-        <v>0.0020270922548087</v>
+        <v>0.201563975193397</v>
       </c>
       <c r="G24">
         <v>0.008403361344537799</v>
       </c>
       <c r="H24">
-        <v>0.907563025210084</v>
+        <v>0.899159663865546</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -2237,23 +2234,23 @@
         <v>0.421</v>
       </c>
       <c r="K24">
-        <v>0.0175948923812778</v>
+        <v>0.0050171703296703</v>
       </c>
       <c r="L24">
-        <v>0.008037508757517599</v>
+        <v>-0.004000640765177</v>
       </c>
       <c r="M24">
-        <v>0.0228696628092555</v>
+        <v>0.0133861392402551</v>
       </c>
       <c r="N24">
-        <v>4.17930935422275</v>
+        <v>1.1917269191616</v>
       </c>
       <c r="O24" t="s">
+        <v>42</v>
+      </c>
+      <c r="P24" t="s">
         <v>43</v>
       </c>
-      <c r="P24" t="s">
-        <v>50</v>
-      </c>
       <c r="Q24">
         <v>1796683.601</v>
       </c>
@@ -2261,19 +2258,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T24" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V24" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W24" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2293,37 +2290,37 @@
         <v>40</v>
       </c>
       <c r="F25">
-        <v>0.365022680879092</v>
+        <v>0.816682987797591</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.576271186440678</v>
+        <v>0.5169491525423729</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0.62</v>
+        <v>0.59</v>
       </c>
       <c r="K25">
-        <v>0.0017083181577783</v>
+        <v>-0.003545751275921</v>
       </c>
       <c r="L25">
-        <v>-0.0071600341235351</v>
+        <v>-0.0112207491290979</v>
       </c>
       <c r="M25">
-        <v>0.0099791630198283</v>
+        <v>0.0028493931045161</v>
       </c>
       <c r="N25">
-        <v>0.275535186738451</v>
+        <v>-0.600974792528997</v>
       </c>
       <c r="O25" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="Q25">
         <v>1796683.601</v>
@@ -2332,19 +2329,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S25" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T25" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U25" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V25" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W25" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2364,37 +2361,37 @@
         <v>40</v>
       </c>
       <c r="F26">
-        <v>0.980985246708184</v>
+        <v>0.9556395451562349</v>
       </c>
       <c r="G26">
         <v>0</v>
       </c>
       <c r="H26">
-        <v>0.415254237288136</v>
+        <v>0.406779661016949</v>
       </c>
       <c r="I26">
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0.026</v>
+        <v>0.025</v>
       </c>
       <c r="K26">
-        <v>-0.0008738038277511</v>
+        <v>-0.0005001141031492</v>
       </c>
       <c r="L26">
-        <v>-0.0015634402764506</v>
+        <v>-0.0012409338416265</v>
       </c>
       <c r="M26">
-        <v>-1.94165633380557E-05</v>
+        <v>0</v>
       </c>
       <c r="N26">
-        <v>-3.36078395288922</v>
+        <v>-2.00045641259699</v>
       </c>
       <c r="O26" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="Q26">
         <v>1796683.601</v>
@@ -2403,19 +2400,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T26" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U26" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V26" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W26" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2435,7 +2432,7 @@
         <v>40</v>
       </c>
       <c r="F27">
-        <v>0.0288396195181323</v>
+        <v>0.0723521396616522</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2447,25 +2444,25 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>1.155</v>
+        <v>1.165</v>
       </c>
       <c r="K27">
-        <v>0.0282046332046332</v>
+        <v>0.0190432742440042</v>
       </c>
       <c r="L27">
-        <v>0.0032837216304661</v>
+        <v>-0.0036541107228784</v>
       </c>
       <c r="M27">
-        <v>0.058680086332996</v>
+        <v>0.0483162000416179</v>
       </c>
       <c r="N27">
-        <v>2.44195958481673</v>
+        <v>1.63461581493598</v>
       </c>
       <c r="O27" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P27" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="Q27">
         <v>1796683.601</v>
@@ -2474,19 +2471,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S27" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T27" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U27" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V27" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W27" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2506,13 +2503,13 @@
         <v>40</v>
       </c>
       <c r="F28">
-        <v>0.999841756539903</v>
+        <v>0.998905674757392</v>
       </c>
       <c r="G28">
         <v>0</v>
       </c>
       <c r="H28">
-        <v>0.537931034482759</v>
+        <v>0.539007092198582</v>
       </c>
       <c r="I28">
         <v>0</v>
@@ -2521,22 +2518,22 @@
         <v>70</v>
       </c>
       <c r="K28">
-        <v>-4.07304438793275</v>
+        <v>-3.56780726954051</v>
       </c>
       <c r="L28">
-        <v>-6.24568053058303</v>
+        <v>-5.64413870751581</v>
       </c>
       <c r="M28">
-        <v>-2.23134484467548</v>
+        <v>-1.68723692883417</v>
       </c>
       <c r="N28">
-        <v>-5.81863483990393</v>
+        <v>-5.09686752791501</v>
       </c>
       <c r="O28" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q28">
         <v>1796683.601</v>
@@ -2545,19 +2542,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S28" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T28" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U28" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V28" t="s">
+        <v>59</v>
+      </c>
+      <c r="W28" t="s">
         <v>60</v>
-      </c>
-      <c r="W28" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2577,37 +2574,37 @@
         <v>40</v>
       </c>
       <c r="F29">
-        <v>0.999999606206932</v>
+        <v>0.999999637400818</v>
       </c>
       <c r="G29">
-        <v>0.0296296296296296</v>
+        <v>0.032258064516129</v>
       </c>
       <c r="H29">
-        <v>0.57037037037037</v>
+        <v>0.588709677419355</v>
       </c>
       <c r="I29">
         <v>3</v>
       </c>
       <c r="J29">
-        <v>2.08</v>
+        <v>2.09</v>
       </c>
       <c r="K29">
-        <v>0.145017204870302</v>
+        <v>0.164235217808766</v>
       </c>
       <c r="L29">
-        <v>0.0956304713315634</v>
+        <v>0.109094260494801</v>
       </c>
       <c r="M29">
-        <v>0.186042117950042</v>
+        <v>0.205157854433169</v>
       </c>
       <c r="N29">
-        <v>6.97198100337989</v>
+        <v>7.85814439276391</v>
       </c>
       <c r="O29" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P29" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q29">
         <v>1796683.601</v>
@@ -2616,19 +2613,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T29" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U29" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V29" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2648,37 +2645,37 @@
         <v>40</v>
       </c>
       <c r="F30">
-        <v>0.999936078544324</v>
+        <v>0.999997060011544</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>0.806818181818182</v>
+        <v>0.80225988700565</v>
       </c>
       <c r="I30">
         <v>0</v>
       </c>
       <c r="J30">
-        <v>10.435</v>
+        <v>10.48</v>
       </c>
       <c r="K30">
-        <v>0.0697929936305729</v>
+        <v>0.07168302145139201</v>
       </c>
       <c r="L30">
-        <v>0.0399126300102573</v>
+        <v>0.0434017744264312</v>
       </c>
       <c r="M30">
-        <v>0.0919684253434922</v>
+        <v>0.08874190419549099</v>
       </c>
       <c r="N30">
-        <v>0.668835588218236</v>
+        <v>0.683998296291909</v>
       </c>
       <c r="O30" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P30" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="Q30">
         <v>1796683.601</v>
@@ -2687,19 +2684,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T30" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U30" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V30" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W30" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2716,40 +2713,40 @@
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F31">
-        <v>0.999994498952656</v>
+        <v>0.999986954204473</v>
       </c>
       <c r="G31">
-        <v>0.0451977401129944</v>
+        <v>0.0508474576271186</v>
       </c>
       <c r="H31">
-        <v>0.248587570621469</v>
+        <v>0.231638418079096</v>
       </c>
       <c r="I31">
         <v>1</v>
       </c>
       <c r="J31">
-        <v>0.014</v>
+        <v>0.013</v>
       </c>
       <c r="K31">
-        <v>-0.0006461380857375999</v>
+        <v>-0.0005997536945812</v>
       </c>
       <c r="L31">
-        <v>-0.0008978398228541</v>
+        <v>-0.0008501357063976</v>
       </c>
       <c r="M31">
-        <v>-0.0003870644767102</v>
+        <v>-0.0003636137381781</v>
       </c>
       <c r="N31">
-        <v>-4.61527204098323</v>
+        <v>-4.61348995831754</v>
       </c>
       <c r="O31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P31" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q31">
         <v>1796683.601</v>
@@ -2758,19 +2755,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S31" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T31" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U31" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V31" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W31" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2790,37 +2787,37 @@
         <v>40</v>
       </c>
       <c r="F32">
-        <v>0.9110070904631909</v>
+        <v>0.789640671123647</v>
       </c>
       <c r="G32">
         <v>0</v>
       </c>
       <c r="H32">
-        <v>0.706214689265537</v>
+        <v>0.728813559322034</v>
       </c>
       <c r="I32">
         <v>0</v>
       </c>
       <c r="J32">
-        <v>230</v>
+        <v>220</v>
       </c>
       <c r="K32">
-        <v>-4.03337090561643</v>
+        <v>-1.48648897453472</v>
       </c>
       <c r="L32">
-        <v>-9.297603793428371</v>
+        <v>-6.73672543489087</v>
       </c>
       <c r="M32">
-        <v>0.465905717115305</v>
+        <v>2.33770239228896</v>
       </c>
       <c r="N32">
-        <v>-1.75363952418106</v>
+        <v>-0.675676806606691</v>
       </c>
       <c r="O32" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P32" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="Q32">
         <v>1796683.601</v>
@@ -2829,19 +2826,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T32" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U32" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V32" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W32" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2855,43 +2852,43 @@
         <v>15</v>
       </c>
       <c r="D33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F33">
-        <v>0.386244615739807</v>
+        <v>0.440041111596753</v>
       </c>
       <c r="G33">
-        <v>0.224137931034483</v>
+        <v>0.24</v>
       </c>
       <c r="H33">
-        <v>0.770114942528736</v>
+        <v>0.76</v>
       </c>
       <c r="I33">
         <v>1</v>
       </c>
       <c r="J33">
-        <v>0.0203948537417496</v>
+        <v>0.0191368613899888</v>
       </c>
       <c r="K33">
         <v>0</v>
       </c>
       <c r="L33">
-        <v>-0.0002220561047864</v>
+        <v>-0.0001425254365348</v>
       </c>
       <c r="M33">
-        <v>0.0003387141395681</v>
+        <v>0.0002786443425694</v>
       </c>
       <c r="N33">
         <v>0</v>
       </c>
       <c r="O33" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P33" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q33">
         <v>1796683.601</v>
@@ -2900,19 +2897,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S33" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T33" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U33" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V33" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W33" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2932,13 +2929,13 @@
         <v>41</v>
       </c>
       <c r="F34">
-        <v>0.620555792230215</v>
+        <v>0.950283962671773</v>
       </c>
       <c r="G34">
-        <v>0.197604790419162</v>
+        <v>0.19774011299435</v>
       </c>
       <c r="H34">
-        <v>0.131736526946108</v>
+        <v>0.124293785310734</v>
       </c>
       <c r="I34">
         <v>2</v>
@@ -2950,7 +2947,7 @@
         <v>0</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>-0.0001400606078689</v>
       </c>
       <c r="M34">
         <v>0</v>
@@ -2959,10 +2956,10 @@
         <v>0</v>
       </c>
       <c r="O34" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P34" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q34">
         <v>1796683.601</v>
@@ -2971,19 +2968,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T34" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U34" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V34" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W34" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -3003,37 +3000,37 @@
         <v>40</v>
       </c>
       <c r="F35">
-        <v>0.139564595055051</v>
+        <v>0.488332244335758</v>
       </c>
       <c r="G35">
-        <v>0.0239520958083832</v>
+        <v>0.0225988700564972</v>
       </c>
       <c r="H35">
-        <v>0.904191616766467</v>
+        <v>0.892655367231638</v>
       </c>
       <c r="I35">
         <v>1</v>
       </c>
       <c r="J35">
-        <v>0.3663</v>
+        <v>0.366</v>
       </c>
       <c r="K35">
-        <v>0.0033266618016086</v>
+        <v>0.0003234606281391</v>
       </c>
       <c r="L35">
-        <v>-0.0016549249840861</v>
+        <v>-0.0034186697318183</v>
       </c>
       <c r="M35">
-        <v>0.0081966338259441</v>
+        <v>0.0044608849354177</v>
       </c>
       <c r="N35">
-        <v>0.908179580018736</v>
+        <v>0.0883772208030363</v>
       </c>
       <c r="O35" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P35" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q35">
         <v>1796683.601</v>
@@ -3042,19 +3039,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T35" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U35" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V35" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W35" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -3074,37 +3071,37 @@
         <v>40</v>
       </c>
       <c r="F36">
-        <v>0.999704985561974</v>
+        <v>0.986155905141298</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>0.5284090909090911</v>
+        <v>0.480225988700565</v>
       </c>
       <c r="I36">
         <v>0</v>
       </c>
       <c r="J36">
-        <v>7.505</v>
+        <v>7.51</v>
       </c>
       <c r="K36">
-        <v>0.020760215763714</v>
+        <v>0.0117255216693419</v>
       </c>
       <c r="L36">
-        <v>0.0109603355191687</v>
+        <v>0.0026944533150057</v>
       </c>
       <c r="M36">
-        <v>0.0305170267584555</v>
+        <v>0.0201401807073902</v>
       </c>
       <c r="N36">
-        <v>0.276618464539827</v>
+        <v>0.156132112774193</v>
       </c>
       <c r="O36" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P36" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="Q36">
         <v>1796683.601</v>
@@ -3113,16 +3110,16 @@
         <v>5632147.322</v>
       </c>
       <c r="S36" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T36" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U36" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V36" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3142,37 +3139,37 @@
         <v>40</v>
       </c>
       <c r="F37">
-        <v>0.184110264412246</v>
+        <v>0.68402443188009</v>
       </c>
       <c r="G37">
         <v>0.0056179775280898</v>
       </c>
       <c r="H37">
-        <v>0.870786516853933</v>
+        <v>0.865168539325843</v>
       </c>
       <c r="I37">
         <v>1</v>
       </c>
       <c r="J37">
-        <v>0.427</v>
+        <v>0.425</v>
       </c>
       <c r="K37">
-        <v>0.0019979299829641</v>
+        <v>-0.0014213311847116</v>
       </c>
       <c r="L37">
-        <v>-0.0022232884852202</v>
+        <v>-0.0057421394395078</v>
       </c>
       <c r="M37">
-        <v>0.0062784780640207</v>
+        <v>0.0030540432991194</v>
       </c>
       <c r="N37">
-        <v>0.46789929343422</v>
+        <v>-0.334430866990964</v>
       </c>
       <c r="O37" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q37">
         <v>1796683.601</v>
@@ -3181,19 +3178,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S37" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T37" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U37" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V37" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W37" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3213,37 +3210,37 @@
         <v>40</v>
       </c>
       <c r="F38">
-        <v>0.6429989406100241</v>
+        <v>0.967618696291952</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>0.485875706214689</v>
+        <v>0.491525423728814</v>
       </c>
       <c r="I38">
         <v>0</v>
       </c>
       <c r="J38">
-        <v>0.64</v>
+        <v>0.62</v>
       </c>
       <c r="K38">
-        <v>-0.0008947250889415</v>
+        <v>-0.0054542060726729</v>
       </c>
       <c r="L38">
-        <v>-0.005567996795021</v>
+        <v>-0.009986329460013601</v>
       </c>
       <c r="M38">
-        <v>0.0027100422321096</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>-0.139800795147117</v>
+        <v>-0.879710656882737</v>
       </c>
       <c r="O38" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P38" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="Q38">
         <v>1796683.601</v>
@@ -3252,19 +3249,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S38" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T38" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U38" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V38" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3284,37 +3281,37 @@
         <v>40</v>
       </c>
       <c r="F39">
-        <v>0.999952972044363</v>
+        <v>0.999963173147086</v>
       </c>
       <c r="G39">
         <v>0.0056497175141242</v>
       </c>
       <c r="H39">
-        <v>0.361581920903955</v>
+        <v>0.355932203389831</v>
       </c>
       <c r="I39">
         <v>1</v>
       </c>
       <c r="J39">
-        <v>0.029</v>
+        <v>0.027</v>
       </c>
       <c r="K39">
-        <v>-0.0008809748622038</v>
+        <v>-0.0008738038277511</v>
       </c>
       <c r="L39">
-        <v>-0.0012952515660507</v>
+        <v>-0.0012867298564275</v>
       </c>
       <c r="M39">
         <v>-0.0004993164730006</v>
       </c>
       <c r="N39">
-        <v>-3.03784435242712</v>
+        <v>-3.23631047315258</v>
       </c>
       <c r="O39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P39" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Q39">
         <v>1796683.601</v>
@@ -3323,19 +3320,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S39" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T39" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U39" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W39" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3355,37 +3352,37 @@
         <v>40</v>
       </c>
       <c r="F40">
-        <v>0.865711672013854</v>
+        <v>0.845550161528685</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>0.728813559322034</v>
+        <v>0.72316384180791</v>
       </c>
       <c r="I40">
         <v>0</v>
       </c>
       <c r="J40">
-        <v>1.23</v>
+        <v>1.18</v>
       </c>
       <c r="K40">
-        <v>-0.0106860337392442</v>
+        <v>-0.0097641783205003</v>
       </c>
       <c r="L40">
-        <v>-0.0281048243816039</v>
+        <v>-0.0261422465266735</v>
       </c>
       <c r="M40">
-        <v>0.005059367103657</v>
+        <v>0.0052206640358706</v>
       </c>
       <c r="N40">
-        <v>-0.868783230832858</v>
+        <v>-0.827472739025451</v>
       </c>
       <c r="O40" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P40" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="Q40">
         <v>1796683.601</v>
@@ -3394,19 +3391,19 @@
         <v>5632147.322</v>
       </c>
       <c r="S40" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T40" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U40" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V40" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="W40" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3426,7 +3423,7 @@
         <v>40</v>
       </c>
       <c r="F41">
-        <v>0.5</v>
+        <v>0.40324797025367</v>
       </c>
       <c r="G41">
         <v>0</v>
@@ -3438,25 +3435,25 @@
         <v>0</v>
       </c>
       <c r="J41">
-        <v>0.286</v>
+        <v>0.29</v>
       </c>
       <c r="K41">
-        <v>0.0055892483423124</v>
+        <v>-0.0014966384282624</v>
       </c>
       <c r="L41">
         <v>-0.112826314802045</v>
       </c>
       <c r="M41">
-        <v>0.0785581003016452</v>
+        <v>0.0591589491060407</v>
       </c>
       <c r="N41">
-        <v>1.95428263717219</v>
+        <v>-0.51608221664222</v>
       </c>
       <c r="O41" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P41" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q41">
         <v>1796683.601</v>
@@ -3465,16 +3462,16 @@
         <v>5632147.322</v>
       </c>
       <c r="S41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T41" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U41" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3494,7 +3491,7 @@
         <v>40</v>
       </c>
       <c r="F42">
-        <v>0.768783636774762</v>
+        <v>0.59675202974633</v>
       </c>
       <c r="G42">
         <v>0</v>
@@ -3506,25 +3503,25 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>91.54000000000001</v>
+        <v>92</v>
       </c>
       <c r="K42">
-        <v>3.27256799376017</v>
+        <v>1.02180340090991</v>
       </c>
       <c r="L42">
         <v>-11.4550441001775</v>
       </c>
       <c r="M42">
-        <v>10.9702607917517</v>
+        <v>5.85562880213824</v>
       </c>
       <c r="N42">
-        <v>3.57501419462549</v>
+        <v>1.11065587055425</v>
       </c>
       <c r="O42" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P42" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="Q42">
         <v>1796683.601</v>
@@ -3533,16 +3530,16 @@
         <v>5632147.322</v>
       </c>
       <c r="S42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U42" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3562,7 +3559,7 @@
         <v>40</v>
       </c>
       <c r="F43">
-        <v>0.110335680959923</v>
+        <v>0.5</v>
       </c>
       <c r="G43">
         <v>0</v>
@@ -3577,22 +3574,22 @@
         <v>3.455</v>
       </c>
       <c r="K43">
-        <v>-0.230470799008835</v>
+        <v>-0.0164107734821074</v>
       </c>
       <c r="L43">
         <v>-0.663939138530292</v>
       </c>
       <c r="M43">
-        <v>-0.0360058808114748</v>
+        <v>0.506128277571268</v>
       </c>
       <c r="N43">
-        <v>-6.67064541270144</v>
+        <v>-0.474986207875756</v>
       </c>
       <c r="O43" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P43" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="Q43">
         <v>1796683.601</v>
@@ -3601,16 +3598,16 @@
         <v>5632147.322</v>
       </c>
       <c r="S43" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T43" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U43" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V43" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3630,7 +3627,7 @@
         <v>40</v>
       </c>
       <c r="F44">
-        <v>0.946297681834873</v>
+        <v>0.923796858021625</v>
       </c>
       <c r="G44">
         <v>0</v>
@@ -3642,25 +3639,25 @@
         <v>0</v>
       </c>
       <c r="J44">
-        <v>0.2395</v>
+        <v>0.2565</v>
       </c>
       <c r="K44">
-        <v>0.0108113017154389</v>
+        <v>0.0107209008097166</v>
       </c>
       <c r="L44">
-        <v>-0.0007639403976639</v>
+        <v>-0.001031277899377</v>
       </c>
       <c r="M44">
-        <v>0.0229261996122643</v>
+        <v>0.0226385726110486</v>
       </c>
       <c r="N44">
-        <v>4.51411345112273</v>
+        <v>4.17968842484078</v>
       </c>
       <c r="O44" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P44" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="Q44">
         <v>1796683.601</v>
@@ -3669,16 +3666,16 @@
         <v>5632147.322</v>
       </c>
       <c r="S44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T44" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U44" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V44" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3698,7 +3695,7 @@
         <v>40</v>
       </c>
       <c r="F45">
-        <v>0.894751149972331</v>
+        <v>0.963180864939849</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -3710,25 +3707,25 @@
         <v>0</v>
       </c>
       <c r="J45">
-        <v>83.875</v>
+        <v>86.33499999999999</v>
       </c>
       <c r="K45">
-        <v>1.47874493927126</v>
+        <v>1.58601957214383</v>
       </c>
       <c r="L45">
-        <v>-0.884257393094211</v>
+        <v>0.339360255669331</v>
       </c>
       <c r="M45">
-        <v>2.47337508853554</v>
+        <v>2.88677583201429</v>
       </c>
       <c r="N45">
-        <v>1.76303420479434</v>
+        <v>1.83705284316191</v>
       </c>
       <c r="O45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P45" t="s">
-        <v>44</v>
+        <v>52</v>
       </c>
       <c r="Q45">
         <v>1796683.601</v>
@@ -3737,16 +3734,16 @@
         <v>5632147.322</v>
       </c>
       <c r="S45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3766,7 +3763,7 @@
         <v>40</v>
       </c>
       <c r="F46">
-        <v>0.6061921166488971</v>
+        <v>0.911016287015968</v>
       </c>
       <c r="G46">
         <v>0</v>
@@ -3781,22 +3778,22 @@
         <v>3.23</v>
       </c>
       <c r="K46">
-        <v>0.013737658674189</v>
+        <v>0.0639854014598541</v>
       </c>
       <c r="L46">
-        <v>-0.0893011947294594</v>
+        <v>-0.0466100655002438</v>
       </c>
       <c r="M46">
-        <v>0.0895159798204133</v>
+        <v>0.16710788473411</v>
       </c>
       <c r="N46">
-        <v>0.425314510036811</v>
+        <v>1.98097218141963</v>
       </c>
       <c r="O46" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P46" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="Q46">
         <v>1796683.601</v>
@@ -3805,16 +3802,16 @@
         <v>5632147.322</v>
       </c>
       <c r="S46" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="T46" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="U46" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="V46" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
